--- a/03_thesis/Auswertung.xlsx
+++ b/03_thesis/Auswertung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C682BF-3368-D744-8E22-5A1B4060E148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15092D14-C7A9-244F-9948-60ED2F0F4257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="67540" windowHeight="28300" xr2:uid="{5437B52F-85AC-DC42-B195-13DB204C42BF}"/>
+    <workbookView xWindow="35060" yWindow="500" windowWidth="67540" windowHeight="28300" activeTab="6" xr2:uid="{5437B52F-85AC-DC42-B195-13DB204C42BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Manuell" sheetId="4" r:id="rId1"/>
@@ -21,50 +21,6 @@
     <sheet name="Brokkoli" sheetId="15" r:id="rId6"/>
     <sheet name="Hokkaido" sheetId="16" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Apfel!$C$4:$D$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Apfel!$P$14:$P$23</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Apfel!$P$24:$P$33</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Apfel!$P$4:$P$13</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Apfel!$W$24:$W$33</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Hokkaido!$C$4:$D$13</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Hokkaido!$U$14:$U$23</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Hokkaido!$U$24:$U$33</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Hokkaido!$U$4:$U$13</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Hokkaido!$C$4:$D$13</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Hokkaido!$U$14:$U$23</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Hokkaido!$U$24:$U$33</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Apfel!$P$24:$P$33</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Hokkaido!$U$4:$U$13</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Hokkaido!$U$14:$U$23</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Hokkaido!$U$24:$U$33</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Hokkaido!$U$4:$U$13</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Hokkaido!$C$4:$D$13</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Hokkaido!$U$14:$U$23</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Hokkaido!$U$24:$U$33</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Hokkaido!$U$4:$U$13</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Hokkaido!$C$4:$D$13</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Hokkaido!$U$14:$U$23</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Apfel!$P$4:$P$13</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Hokkaido!$U$24:$U$33</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Hokkaido!$U$4:$U$13</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Hokkaido!$U$14:$U$23</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Hokkaido!$U$24:$U$33</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Hokkaido!$U$4:$U$13</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Hokkaido!$C$4:$D$13</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Hokkaido!$U$14:$U$23</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Hokkaido!$U$24:$U$33</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Hokkaido!$U$4:$U$13</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Hokkaido!$U$14:$U$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Apfel!$C$4:$D$13</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Hokkaido!$U$24:$U$33</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Hokkaido!$U$4:$U$13</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Apfel!$P$14:$P$23</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Apfel!$P$24:$P$33</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Apfel!$P$4:$P$13</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Apfel!$C$4:$D$13</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Apfel!$P$14:$P$23</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1208,16 +1164,37 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1237,27 +1214,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2376,7 +2332,7 @@
             <c:numRef>
               <c:f>Hokkaido!$P$24:$P$33</c:f>
               <c:numCache>
-                <c:formatCode>00,000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1095.2044000000001</c:v>
@@ -2509,7 +2465,7 @@
             <c:numRef>
               <c:f>Hokkaido!$P$14:$P$23</c:f>
               <c:numCache>
-                <c:formatCode>00,000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1070.825</c:v>
@@ -2646,7 +2602,7 @@
             <c:numRef>
               <c:f>Hokkaido!$P$4:$P$13</c:f>
               <c:numCache>
-                <c:formatCode>00,000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1041.3018</c:v>
@@ -3211,7 +3167,7 @@
             <c:numRef>
               <c:f>Hokkaido!$U$24:$U$33</c:f>
               <c:numCache>
-                <c:formatCode>00,000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-6.6640190898244498</c:v>
@@ -3344,7 +3300,7 @@
             <c:numRef>
               <c:f>Hokkaido!$U$14:$U$23</c:f>
               <c:numCache>
-                <c:formatCode>00,000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-8.7416908130219895</c:v>
@@ -3481,7 +3437,7 @@
             <c:numRef>
               <c:f>Hokkaido!$U$4:$U$13</c:f>
               <c:numCache>
-                <c:formatCode>00,000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-11.257729674450331</c:v>
@@ -5677,7 +5633,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5965,7 +5921,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5975,8 +5931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DF1925-2DEF-684D-9EE4-5D2AA308DC0A}">
   <dimension ref="B1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="164" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6276,7 +6232,7 @@
   <dimension ref="B1:AA43"/>
   <sheetViews>
     <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+      <selection activeCell="D37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6296,55 +6252,55 @@
   <sheetData>
     <row r="1" spans="2:27" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="86" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="82" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="85"/>
+      <c r="T2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="U2" s="74" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
         <v>20</v>
@@ -6388,14 +6344,14 @@
       <c r="S3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="74"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="76"/>
     </row>
     <row r="4" spans="2:27" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86">
+      <c r="B4" s="71">
         <v>60</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -6457,8 +6413,8 @@
       <c r="V4" s="33"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
@@ -6518,8 +6474,8 @@
       <c r="V5" s="33"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -6581,8 +6537,8 @@
       <c r="V6" s="33"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
@@ -6646,8 +6602,8 @@
       <c r="AA7" s="15"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -6709,8 +6665,8 @@
       <c r="V8" s="33"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
@@ -6770,8 +6726,8 @@
       <c r="V9" s="33"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="84"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -6833,8 +6789,8 @@
       <c r="V10" s="33"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
@@ -6894,8 +6850,8 @@
       <c r="V11" s="33"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -6957,8 +6913,8 @@
       <c r="V12" s="33"/>
     </row>
     <row r="13" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
@@ -7021,10 +6977,10 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="86">
+      <c r="B14" s="71">
         <v>120</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -7089,8 +7045,8 @@
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
@@ -7150,8 +7106,8 @@
       <c r="V15" s="33"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -7213,8 +7169,8 @@
       <c r="V16" s="33"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
@@ -7274,8 +7230,8 @@
       <c r="V17" s="33"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="84"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -7341,8 +7297,8 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="23" t="s">
         <v>6</v>
       </c>
@@ -7402,8 +7358,8 @@
       <c r="V19" s="33"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -7470,8 +7426,8 @@
       <c r="AA20" s="15"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
@@ -7531,8 +7487,8 @@
       <c r="V21" s="33"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B22" s="84"/>
-      <c r="C22" s="84" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -7598,8 +7554,8 @@
       <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
@@ -7659,10 +7615,10 @@
       <c r="V23" s="58"/>
     </row>
     <row r="24" spans="2:27" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="86">
+      <c r="B24" s="71">
         <v>180</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -7724,8 +7680,8 @@
       <c r="V24" s="33"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="23" t="s">
         <v>6</v>
       </c>
@@ -7785,8 +7741,8 @@
       <c r="V25" s="33"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B26" s="84"/>
-      <c r="C26" s="84" t="s">
+      <c r="B26" s="72"/>
+      <c r="C26" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -7852,8 +7808,8 @@
       <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="23" t="s">
         <v>6</v>
       </c>
@@ -7917,8 +7873,8 @@
       <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B28" s="84"/>
-      <c r="C28" s="84" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -7984,8 +7940,8 @@
       <c r="Z28" s="15"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
@@ -8049,8 +8005,8 @@
       <c r="Z29" s="15"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B30" s="84"/>
-      <c r="C30" s="84" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -8116,8 +8072,8 @@
       <c r="Z30" s="15"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="23" t="s">
         <v>6</v>
       </c>
@@ -8181,8 +8137,8 @@
       <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B32" s="84"/>
-      <c r="C32" s="84" t="s">
+      <c r="B32" s="72"/>
+      <c r="C32" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -8244,8 +8200,8 @@
       <c r="V32" s="33"/>
     </row>
     <row r="33" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
@@ -8321,10 +8277,10 @@
       <c r="C36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="82">
         <v>0.85599999999999998</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.2">
@@ -8332,10 +8288,10 @@
       <c r="C37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="76">
+      <c r="D37" s="83">
         <v>199.98</v>
       </c>
-      <c r="E37" s="76"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="28"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
@@ -8348,10 +8304,10 @@
       <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="76">
+      <c r="D38" s="83">
         <v>171.23</v>
       </c>
-      <c r="E38" s="76"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="28"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.2">
@@ -8372,24 +8328,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="P2:Q2"/>
@@ -8398,13 +8343,24 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8418,7 +8374,7 @@
   <dimension ref="B1:AB43"/>
   <sheetViews>
     <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="D37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8436,55 +8392,55 @@
   <sheetData>
     <row r="1" spans="2:28" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:28" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="86" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="82" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="85"/>
+      <c r="T2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="U2" s="74" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:28" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
         <v>20</v>
@@ -8528,14 +8484,14 @@
       <c r="S3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="74"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="76"/>
     </row>
     <row r="4" spans="2:28" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86">
+      <c r="B4" s="71">
         <v>60</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -8598,8 +8554,8 @@
       <c r="X4" s="15"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
@@ -8660,8 +8616,8 @@
       <c r="X5" s="15"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -8724,8 +8680,8 @@
       <c r="X6" s="15"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
@@ -8786,8 +8742,8 @@
       <c r="X7" s="15"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -8850,8 +8806,8 @@
       <c r="X8" s="15"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
@@ -8914,8 +8870,8 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="84"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -8978,8 +8934,8 @@
       <c r="X10" s="15"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
@@ -9038,8 +8994,8 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -9102,8 +9058,8 @@
       <c r="X12" s="15"/>
     </row>
     <row r="13" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
@@ -9168,10 +9124,10 @@
       <c r="AB13" s="15"/>
     </row>
     <row r="14" spans="2:28" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="86">
+      <c r="B14" s="71">
         <v>120</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -9238,8 +9194,8 @@
       <c r="AB14" s="15"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
@@ -9303,8 +9259,8 @@
       <c r="AB15" s="15"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -9371,8 +9327,8 @@
       <c r="AB16" s="15"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
@@ -9437,8 +9393,8 @@
       <c r="AB17" s="15"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="84"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -9505,8 +9461,8 @@
       <c r="AB18" s="15"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="23" t="s">
         <v>6</v>
       </c>
@@ -9571,8 +9527,8 @@
       <c r="AB19" s="15"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -9638,8 +9594,8 @@
       <c r="AB20" s="15"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
@@ -9703,8 +9659,8 @@
       <c r="AB21" s="15"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B22" s="84"/>
-      <c r="C22" s="84" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -9771,8 +9727,8 @@
       <c r="AB22" s="15"/>
     </row>
     <row r="23" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
@@ -9834,10 +9790,10 @@
       </c>
     </row>
     <row r="24" spans="2:28" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="86">
+      <c r="B24" s="71">
         <v>180</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -9899,8 +9855,8 @@
       <c r="W24" s="15"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="23" t="s">
         <v>6</v>
       </c>
@@ -9960,8 +9916,8 @@
       <c r="W25" s="15"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B26" s="84"/>
-      <c r="C26" s="84" t="s">
+      <c r="B26" s="72"/>
+      <c r="C26" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -10023,8 +9979,8 @@
       <c r="W26" s="15"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="23" t="s">
         <v>6</v>
       </c>
@@ -10084,8 +10040,8 @@
       <c r="W27" s="15"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B28" s="84"/>
-      <c r="C28" s="84" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -10147,8 +10103,8 @@
       <c r="W28" s="15"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
@@ -10207,8 +10163,8 @@
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B30" s="84"/>
-      <c r="C30" s="84" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -10269,8 +10225,8 @@
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="23" t="s">
         <v>6</v>
       </c>
@@ -10329,8 +10285,8 @@
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B32" s="84"/>
-      <c r="C32" s="84" t="s">
+      <c r="B32" s="72"/>
+      <c r="C32" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -10391,8 +10347,8 @@
       </c>
     </row>
     <row r="33" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
@@ -10466,10 +10422,10 @@
       <c r="C36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="82">
         <v>0.84099999999999997</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="82"/>
       <c r="W36" s="15"/>
       <c r="X36" s="15"/>
       <c r="Y36" s="33"/>
@@ -10479,10 +10435,10 @@
       <c r="C37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="76">
+      <c r="D37" s="83">
         <v>195.2</v>
       </c>
-      <c r="E37" s="76"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="28"/>
       <c r="W37" s="15"/>
       <c r="X37" s="15"/>
@@ -10493,10 +10449,10 @@
       <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="76">
+      <c r="D38" s="83">
         <v>164.1</v>
       </c>
-      <c r="E38" s="76"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="28"/>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.2">
@@ -10533,6 +10489,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -10545,27 +10522,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10579,7 +10535,7 @@
   <dimension ref="B1:Z43"/>
   <sheetViews>
     <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="D37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10597,55 +10553,55 @@
   <sheetData>
     <row r="1" spans="2:26" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="86" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="82" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="85"/>
+      <c r="T2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="U2" s="74" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
         <v>20</v>
@@ -10689,14 +10645,14 @@
       <c r="S3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="74"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="76"/>
     </row>
     <row r="4" spans="2:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86">
+      <c r="B4" s="71">
         <v>60</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -10757,8 +10713,8 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
@@ -10817,8 +10773,8 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -10879,8 +10835,8 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
@@ -10939,8 +10895,8 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -11001,8 +10957,8 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
@@ -11061,8 +11017,8 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B10" s="84"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -11123,8 +11079,8 @@
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
@@ -11183,8 +11139,8 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -11245,8 +11201,8 @@
       </c>
     </row>
     <row r="13" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
@@ -11308,10 +11264,10 @@
       </c>
     </row>
     <row r="14" spans="2:26" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="86">
+      <c r="B14" s="71">
         <v>120</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -11372,8 +11328,8 @@
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
@@ -11432,8 +11388,8 @@
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -11498,8 +11454,8 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
@@ -11562,8 +11518,8 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B18" s="84"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -11628,8 +11584,8 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="23" t="s">
         <v>6</v>
       </c>
@@ -11692,8 +11648,8 @@
       <c r="Z19" s="15"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -11758,8 +11714,8 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
@@ -11822,8 +11778,8 @@
       <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B22" s="84"/>
-      <c r="C22" s="84" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -11888,8 +11844,8 @@
       <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
@@ -11953,10 +11909,10 @@
       <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="2:26" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="86">
+      <c r="B24" s="71">
         <v>180</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -12022,8 +11978,8 @@
       <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="23" t="s">
         <v>6</v>
       </c>
@@ -12086,8 +12042,8 @@
       <c r="Z25" s="15"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B26" s="84"/>
-      <c r="C26" s="84" t="s">
+      <c r="B26" s="72"/>
+      <c r="C26" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -12152,8 +12108,8 @@
       <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="23" t="s">
         <v>6</v>
       </c>
@@ -12216,8 +12172,8 @@
       <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B28" s="84"/>
-      <c r="C28" s="84" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -12282,8 +12238,8 @@
       <c r="Z28" s="15"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
@@ -12346,8 +12302,8 @@
       <c r="Z29" s="15"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B30" s="84"/>
-      <c r="C30" s="84" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -12412,8 +12368,8 @@
       <c r="Z30" s="15"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="23" t="s">
         <v>6</v>
       </c>
@@ -12476,8 +12432,8 @@
       <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B32" s="84"/>
-      <c r="C32" s="84" t="s">
+      <c r="B32" s="72"/>
+      <c r="C32" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -12542,8 +12498,8 @@
       <c r="Z32" s="15"/>
     </row>
     <row r="33" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
@@ -12627,10 +12583,10 @@
       <c r="C36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="82">
         <v>1.0349999999999999</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.2">
@@ -12638,10 +12594,10 @@
       <c r="C37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="76">
+      <c r="D37" s="83">
         <v>198.04</v>
       </c>
-      <c r="E37" s="76"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.2">
@@ -12649,10 +12605,10 @@
       <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="76">
+      <c r="D38" s="83">
         <v>205.02</v>
       </c>
-      <c r="E38" s="76"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="28"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.2">
@@ -12673,6 +12629,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -12685,27 +12662,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12719,7 +12675,7 @@
   <dimension ref="B1:W43"/>
   <sheetViews>
     <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="D37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12737,55 +12693,55 @@
   <sheetData>
     <row r="1" spans="2:23" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="86" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="82" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="85"/>
+      <c r="T2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="U2" s="74" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
         <v>20</v>
@@ -12829,14 +12785,14 @@
       <c r="S3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="74"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="76"/>
     </row>
     <row r="4" spans="2:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86">
+      <c r="B4" s="71">
         <v>60</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -12897,8 +12853,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
@@ -12957,8 +12913,8 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -13019,8 +12975,8 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
@@ -13079,8 +13035,8 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -13141,8 +13097,8 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
@@ -13201,8 +13157,8 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="84"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -13263,8 +13219,8 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
@@ -13323,8 +13279,8 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -13385,8 +13341,8 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
@@ -13448,10 +13404,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="86">
+      <c r="B14" s="71">
         <v>120</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -13512,8 +13468,8 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
@@ -13572,8 +13528,8 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -13634,8 +13590,8 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
@@ -13694,8 +13650,8 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="84"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -13756,8 +13712,8 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="23" t="s">
         <v>6</v>
       </c>
@@ -13816,8 +13772,8 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -13878,8 +13834,8 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
@@ -13938,8 +13894,8 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="84"/>
-      <c r="C22" s="84" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -14000,8 +13956,8 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
@@ -14063,10 +14019,10 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="86">
+      <c r="B24" s="71">
         <v>180</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -14130,8 +14086,8 @@
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="23" t="s">
         <v>6</v>
       </c>
@@ -14190,8 +14146,8 @@
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="84"/>
-      <c r="C26" s="84" t="s">
+      <c r="B26" s="72"/>
+      <c r="C26" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -14252,8 +14208,8 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="23" t="s">
         <v>6</v>
       </c>
@@ -14312,8 +14268,8 @@
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="84"/>
-      <c r="C28" s="84" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -14374,8 +14330,8 @@
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
@@ -14434,8 +14390,8 @@
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="84"/>
-      <c r="C30" s="84" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -14496,8 +14452,8 @@
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="23" t="s">
         <v>6</v>
       </c>
@@ -14556,8 +14512,8 @@
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="84"/>
-      <c r="C32" s="84" t="s">
+      <c r="B32" s="72"/>
+      <c r="C32" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -14618,8 +14574,8 @@
       </c>
     </row>
     <row r="33" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
@@ -14690,10 +14646,10 @@
       <c r="C36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="82">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
@@ -14701,10 +14657,10 @@
       <c r="C37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="76">
+      <c r="D37" s="83">
         <v>144.13</v>
       </c>
-      <c r="E37" s="76"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
@@ -14712,10 +14668,10 @@
       <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="76">
+      <c r="D38" s="83">
         <v>132.11000000000001</v>
       </c>
-      <c r="E38" s="76"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="28"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
@@ -14736,6 +14692,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -14748,27 +14725,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14782,7 +14738,7 @@
   <dimension ref="B1:W43"/>
   <sheetViews>
     <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="D37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14800,55 +14756,55 @@
   <sheetData>
     <row r="1" spans="2:23" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="86" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="82" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="85"/>
+      <c r="T2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="U2" s="74" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
         <v>20</v>
@@ -14892,14 +14848,14 @@
       <c r="S3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="74"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="76"/>
     </row>
     <row r="4" spans="2:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86">
+      <c r="B4" s="71">
         <v>60</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -14961,8 +14917,8 @@
       <c r="W4" s="59"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
@@ -15021,8 +14977,8 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -15083,8 +15039,8 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
@@ -15143,8 +15099,8 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -15205,8 +15161,8 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
@@ -15265,8 +15221,8 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="84"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -15327,8 +15283,8 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
@@ -15387,8 +15343,8 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -15449,8 +15405,8 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
@@ -15509,10 +15465,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="86">
+      <c r="B14" s="71">
         <v>120</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -15573,8 +15529,8 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
@@ -15633,8 +15589,8 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -15695,8 +15651,8 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
@@ -15755,8 +15711,8 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="84"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -15817,8 +15773,8 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="23" t="s">
         <v>6</v>
       </c>
@@ -15877,8 +15833,8 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -15939,8 +15895,8 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
@@ -15999,8 +15955,8 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="84"/>
-      <c r="C22" s="84" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -16061,8 +16017,8 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
@@ -16121,10 +16077,10 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="86">
+      <c r="B24" s="71">
         <v>180</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -16188,8 +16144,8 @@
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="23" t="s">
         <v>6</v>
       </c>
@@ -16248,8 +16204,8 @@
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="84"/>
-      <c r="C26" s="84" t="s">
+      <c r="B26" s="72"/>
+      <c r="C26" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -16310,8 +16266,8 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="23" t="s">
         <v>6</v>
       </c>
@@ -16370,8 +16326,8 @@
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="84"/>
-      <c r="C28" s="84" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -16432,8 +16388,8 @@
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
@@ -16495,8 +16451,8 @@
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="84"/>
-      <c r="C30" s="84" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -16557,8 +16513,8 @@
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="23" t="s">
         <v>6</v>
       </c>
@@ -16617,8 +16573,8 @@
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="84"/>
-      <c r="C32" s="84" t="s">
+      <c r="B32" s="72"/>
+      <c r="C32" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -16679,8 +16635,8 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
@@ -16761,10 +16717,10 @@
       <c r="C36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="82">
         <v>0.83799999999999997</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
@@ -16772,10 +16728,10 @@
       <c r="C37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="76">
+      <c r="D37" s="83">
         <v>571.29</v>
       </c>
-      <c r="E37" s="76"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
@@ -16783,10 +16739,10 @@
       <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="76">
+      <c r="D38" s="83">
         <v>445.61</v>
       </c>
-      <c r="E38" s="76"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="28"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
@@ -16807,6 +16763,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -16819,27 +16796,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16852,8 +16808,8 @@
   </sheetPr>
   <dimension ref="B1:W52"/>
   <sheetViews>
-    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16871,55 +16827,55 @@
   <sheetData>
     <row r="1" spans="2:23" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="86" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="82" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="85"/>
+      <c r="T2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="U2" s="74" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
         <v>20</v>
@@ -16963,14 +16919,14 @@
       <c r="S3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="74"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="76"/>
     </row>
     <row r="4" spans="2:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="86">
+      <c r="B4" s="71">
         <v>60</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -17031,8 +16987,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
@@ -17091,8 +17047,8 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -17153,8 +17109,8 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
@@ -17213,8 +17169,8 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -17275,8 +17231,8 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
@@ -17335,8 +17291,8 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="84"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -17397,8 +17353,8 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
@@ -17457,8 +17413,8 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -17522,8 +17478,8 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
@@ -17585,10 +17541,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="86">
+      <c r="B14" s="71">
         <v>120</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -17649,8 +17605,8 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
@@ -17709,8 +17665,8 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -17771,8 +17727,8 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
@@ -17831,8 +17787,8 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="84"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -17893,8 +17849,8 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="23" t="s">
         <v>6</v>
       </c>
@@ -17953,8 +17909,8 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -18015,8 +17971,8 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
@@ -18075,8 +18031,8 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="84"/>
-      <c r="C22" s="84" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -18137,8 +18093,8 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
@@ -18197,10 +18153,10 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="86">
+      <c r="B24" s="71">
         <v>180</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -18261,8 +18217,8 @@
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="23" t="s">
         <v>6</v>
       </c>
@@ -18321,8 +18277,8 @@
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="84"/>
-      <c r="C26" s="84" t="s">
+      <c r="B26" s="72"/>
+      <c r="C26" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -18383,8 +18339,8 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="23" t="s">
         <v>6</v>
       </c>
@@ -18443,8 +18399,8 @@
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="84"/>
-      <c r="C28" s="84" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -18505,8 +18461,8 @@
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
@@ -18565,8 +18521,8 @@
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="84"/>
-      <c r="C30" s="84" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -18627,8 +18583,8 @@
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="23" t="s">
         <v>6</v>
       </c>
@@ -18687,8 +18643,8 @@
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="84"/>
-      <c r="C32" s="84" t="s">
+      <c r="B32" s="72"/>
+      <c r="C32" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -18752,8 +18708,8 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
@@ -18827,10 +18783,10 @@
       <c r="C36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="82">
         <v>0.755</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
@@ -18838,10 +18794,10 @@
       <c r="C37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="76">
+      <c r="D37" s="83">
         <v>1173.4000000000001</v>
       </c>
-      <c r="E37" s="76"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
@@ -18849,10 +18805,10 @@
       <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="76">
+      <c r="D38" s="83">
         <v>886.07</v>
       </c>
-      <c r="E38" s="76"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="28"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
@@ -18921,6 +18877,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -18933,27 +18910,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/03_thesis/Auswertung.xlsx
+++ b/03_thesis/Auswertung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15092D14-C7A9-244F-9948-60ED2F0F4257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3C856D-4B52-AA42-9A63-6EDC08DD8D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35060" yWindow="500" windowWidth="67540" windowHeight="28300" activeTab="6" xr2:uid="{5437B52F-85AC-DC42-B195-13DB204C42BF}"/>
+    <workbookView xWindow="1260" yWindow="7700" windowWidth="37320" windowHeight="21100" activeTab="6" xr2:uid="{5437B52F-85AC-DC42-B195-13DB204C42BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Manuell" sheetId="4" r:id="rId1"/>
@@ -1164,37 +1164,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,6 +1193,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6232,7 +6232,7 @@
   <dimension ref="B1:AA43"/>
   <sheetViews>
     <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:E37"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6252,55 +6252,55 @@
   <sheetData>
     <row r="1" spans="2:27" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="79" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72" t="s">
+      <c r="K2" s="84"/>
+      <c r="L2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="84" t="s">
+      <c r="Q2" s="82"/>
+      <c r="R2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="85"/>
-      <c r="T2" s="80" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="74" t="s">
+      <c r="U2" s="73" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
         <v>20</v>
@@ -6344,14 +6344,14 @@
       <c r="S3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="76"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="74"/>
     </row>
     <row r="4" spans="2:27" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="71">
+      <c r="B4" s="86">
         <v>60</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -6413,8 +6413,8 @@
       <c r="V4" s="33"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
@@ -6474,8 +6474,8 @@
       <c r="V5" s="33"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -6537,8 +6537,8 @@
       <c r="V6" s="33"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
@@ -6602,8 +6602,8 @@
       <c r="AA7" s="15"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -6665,8 +6665,8 @@
       <c r="V8" s="33"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
@@ -6726,8 +6726,8 @@
       <c r="V9" s="33"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="72"/>
-      <c r="C10" s="72" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -6789,8 +6789,8 @@
       <c r="V10" s="33"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
@@ -6850,8 +6850,8 @@
       <c r="V11" s="33"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -6913,8 +6913,8 @@
       <c r="V12" s="33"/>
     </row>
     <row r="13" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
@@ -6977,10 +6977,10 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="71">
+      <c r="B14" s="86">
         <v>120</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -7045,8 +7045,8 @@
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
@@ -7106,8 +7106,8 @@
       <c r="V15" s="33"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="72"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -7169,8 +7169,8 @@
       <c r="V16" s="33"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
@@ -7230,8 +7230,8 @@
       <c r="V17" s="33"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -7297,8 +7297,8 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="23" t="s">
         <v>6</v>
       </c>
@@ -7358,8 +7358,8 @@
       <c r="V19" s="33"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="72"/>
-      <c r="C20" s="72" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -7426,8 +7426,8 @@
       <c r="AA20" s="15"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
@@ -7487,8 +7487,8 @@
       <c r="V21" s="33"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B22" s="72"/>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -7554,8 +7554,8 @@
       <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
@@ -7615,10 +7615,10 @@
       <c r="V23" s="58"/>
     </row>
     <row r="24" spans="2:27" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="71">
+      <c r="B24" s="86">
         <v>180</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -7680,8 +7680,8 @@
       <c r="V24" s="33"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="23" t="s">
         <v>6</v>
       </c>
@@ -7741,8 +7741,8 @@
       <c r="V25" s="33"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B26" s="72"/>
-      <c r="C26" s="72" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -7808,8 +7808,8 @@
       <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="23" t="s">
         <v>6</v>
       </c>
@@ -7873,8 +7873,8 @@
       <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B28" s="72"/>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -7940,8 +7940,8 @@
       <c r="Z28" s="15"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
@@ -8005,8 +8005,8 @@
       <c r="Z29" s="15"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B30" s="72"/>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -8072,8 +8072,8 @@
       <c r="Z30" s="15"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="23" t="s">
         <v>6</v>
       </c>
@@ -8137,8 +8137,8 @@
       <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B32" s="72"/>
-      <c r="C32" s="72" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -8200,8 +8200,8 @@
       <c r="V32" s="33"/>
     </row>
     <row r="33" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
@@ -8277,10 +8277,10 @@
       <c r="C36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="75">
         <v>0.85599999999999998</v>
       </c>
-      <c r="E36" s="82"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.2">
@@ -8288,10 +8288,10 @@
       <c r="C37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="83">
+      <c r="D37" s="76">
         <v>199.98</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="28"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
@@ -8304,10 +8304,10 @@
       <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="83">
+      <c r="D38" s="76">
         <v>171.23</v>
       </c>
-      <c r="E38" s="83"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="28"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.2">
@@ -8328,13 +8328,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="P2:Q2"/>
@@ -8343,24 +8354,13 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8392,55 +8392,55 @@
   <sheetData>
     <row r="1" spans="2:28" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:28" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="79" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72" t="s">
+      <c r="K2" s="84"/>
+      <c r="L2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="84" t="s">
+      <c r="Q2" s="82"/>
+      <c r="R2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="85"/>
-      <c r="T2" s="80" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="74" t="s">
+      <c r="U2" s="73" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:28" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
         <v>20</v>
@@ -8484,14 +8484,14 @@
       <c r="S3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="76"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="74"/>
     </row>
     <row r="4" spans="2:28" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="71">
+      <c r="B4" s="86">
         <v>60</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -8554,8 +8554,8 @@
       <c r="X4" s="15"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
@@ -8616,8 +8616,8 @@
       <c r="X5" s="15"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -8680,8 +8680,8 @@
       <c r="X6" s="15"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
@@ -8742,8 +8742,8 @@
       <c r="X7" s="15"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -8806,8 +8806,8 @@
       <c r="X8" s="15"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
@@ -8870,8 +8870,8 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="72"/>
-      <c r="C10" s="72" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -8934,8 +8934,8 @@
       <c r="X10" s="15"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
@@ -8994,8 +8994,8 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -9058,8 +9058,8 @@
       <c r="X12" s="15"/>
     </row>
     <row r="13" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
@@ -9124,10 +9124,10 @@
       <c r="AB13" s="15"/>
     </row>
     <row r="14" spans="2:28" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="71">
+      <c r="B14" s="86">
         <v>120</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -9194,8 +9194,8 @@
       <c r="AB14" s="15"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
@@ -9259,8 +9259,8 @@
       <c r="AB15" s="15"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="72"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -9327,8 +9327,8 @@
       <c r="AB16" s="15"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
@@ -9393,8 +9393,8 @@
       <c r="AB17" s="15"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -9461,8 +9461,8 @@
       <c r="AB18" s="15"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="23" t="s">
         <v>6</v>
       </c>
@@ -9527,8 +9527,8 @@
       <c r="AB19" s="15"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B20" s="72"/>
-      <c r="C20" s="72" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -9594,8 +9594,8 @@
       <c r="AB20" s="15"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
@@ -9659,8 +9659,8 @@
       <c r="AB21" s="15"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B22" s="72"/>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -9727,8 +9727,8 @@
       <c r="AB22" s="15"/>
     </row>
     <row r="23" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
@@ -9790,10 +9790,10 @@
       </c>
     </row>
     <row r="24" spans="2:28" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="71">
+      <c r="B24" s="86">
         <v>180</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -9855,8 +9855,8 @@
       <c r="W24" s="15"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="23" t="s">
         <v>6</v>
       </c>
@@ -9916,8 +9916,8 @@
       <c r="W25" s="15"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B26" s="72"/>
-      <c r="C26" s="72" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -9979,8 +9979,8 @@
       <c r="W26" s="15"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="23" t="s">
         <v>6</v>
       </c>
@@ -10040,8 +10040,8 @@
       <c r="W27" s="15"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B28" s="72"/>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -10103,8 +10103,8 @@
       <c r="W28" s="15"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
@@ -10163,8 +10163,8 @@
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B30" s="72"/>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -10225,8 +10225,8 @@
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="23" t="s">
         <v>6</v>
       </c>
@@ -10285,8 +10285,8 @@
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B32" s="72"/>
-      <c r="C32" s="72" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -10347,8 +10347,8 @@
       </c>
     </row>
     <row r="33" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
@@ -10422,10 +10422,10 @@
       <c r="C36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="75">
         <v>0.84099999999999997</v>
       </c>
-      <c r="E36" s="82"/>
+      <c r="E36" s="75"/>
       <c r="W36" s="15"/>
       <c r="X36" s="15"/>
       <c r="Y36" s="33"/>
@@ -10435,10 +10435,10 @@
       <c r="C37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="83">
+      <c r="D37" s="76">
         <v>195.2</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="28"/>
       <c r="W37" s="15"/>
       <c r="X37" s="15"/>
@@ -10449,10 +10449,10 @@
       <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="83">
+      <c r="D38" s="76">
         <v>164.1</v>
       </c>
-      <c r="E38" s="83"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="28"/>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.2">
@@ -10489,27 +10489,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -10522,6 +10501,27 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10553,55 +10553,55 @@
   <sheetData>
     <row r="1" spans="2:26" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="79" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72" t="s">
+      <c r="K2" s="84"/>
+      <c r="L2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="84" t="s">
+      <c r="Q2" s="82"/>
+      <c r="R2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="85"/>
-      <c r="T2" s="80" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="74" t="s">
+      <c r="U2" s="73" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
         <v>20</v>
@@ -10645,14 +10645,14 @@
       <c r="S3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="76"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="74"/>
     </row>
     <row r="4" spans="2:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="71">
+      <c r="B4" s="86">
         <v>60</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -10713,8 +10713,8 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
@@ -10773,8 +10773,8 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -10835,8 +10835,8 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
@@ -10895,8 +10895,8 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -10957,8 +10957,8 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
@@ -11017,8 +11017,8 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B10" s="72"/>
-      <c r="C10" s="72" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -11079,8 +11079,8 @@
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
@@ -11139,8 +11139,8 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -11201,8 +11201,8 @@
       </c>
     </row>
     <row r="13" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
@@ -11264,10 +11264,10 @@
       </c>
     </row>
     <row r="14" spans="2:26" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="71">
+      <c r="B14" s="86">
         <v>120</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -11328,8 +11328,8 @@
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
@@ -11388,8 +11388,8 @@
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="72"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -11454,8 +11454,8 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
@@ -11518,8 +11518,8 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -11584,8 +11584,8 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="23" t="s">
         <v>6</v>
       </c>
@@ -11648,8 +11648,8 @@
       <c r="Z19" s="15"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B20" s="72"/>
-      <c r="C20" s="72" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -11714,8 +11714,8 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
@@ -11778,8 +11778,8 @@
       <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B22" s="72"/>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -11844,8 +11844,8 @@
       <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
@@ -11909,10 +11909,10 @@
       <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="2:26" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="71">
+      <c r="B24" s="86">
         <v>180</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -11978,8 +11978,8 @@
       <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="23" t="s">
         <v>6</v>
       </c>
@@ -12042,8 +12042,8 @@
       <c r="Z25" s="15"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B26" s="72"/>
-      <c r="C26" s="72" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -12108,8 +12108,8 @@
       <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="23" t="s">
         <v>6</v>
       </c>
@@ -12172,8 +12172,8 @@
       <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B28" s="72"/>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -12238,8 +12238,8 @@
       <c r="Z28" s="15"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
@@ -12302,8 +12302,8 @@
       <c r="Z29" s="15"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B30" s="72"/>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -12368,8 +12368,8 @@
       <c r="Z30" s="15"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="23" t="s">
         <v>6</v>
       </c>
@@ -12432,8 +12432,8 @@
       <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B32" s="72"/>
-      <c r="C32" s="72" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -12498,8 +12498,8 @@
       <c r="Z32" s="15"/>
     </row>
     <row r="33" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
@@ -12583,10 +12583,10 @@
       <c r="C36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="75">
         <v>1.0349999999999999</v>
       </c>
-      <c r="E36" s="82"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.2">
@@ -12594,10 +12594,10 @@
       <c r="C37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="83">
+      <c r="D37" s="76">
         <v>198.04</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.2">
@@ -12605,10 +12605,10 @@
       <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="83">
+      <c r="D38" s="76">
         <v>205.02</v>
       </c>
-      <c r="E38" s="83"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="28"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.2">
@@ -12629,27 +12629,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -12662,6 +12641,27 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12693,55 +12693,55 @@
   <sheetData>
     <row r="1" spans="2:23" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="79" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72" t="s">
+      <c r="K2" s="84"/>
+      <c r="L2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="84" t="s">
+      <c r="Q2" s="82"/>
+      <c r="R2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="85"/>
-      <c r="T2" s="80" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="74" t="s">
+      <c r="U2" s="73" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
         <v>20</v>
@@ -12785,14 +12785,14 @@
       <c r="S3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="76"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="74"/>
     </row>
     <row r="4" spans="2:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="71">
+      <c r="B4" s="86">
         <v>60</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -12853,8 +12853,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
@@ -12913,8 +12913,8 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -12975,8 +12975,8 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
@@ -13035,8 +13035,8 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -13097,8 +13097,8 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
@@ -13157,8 +13157,8 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="72"/>
-      <c r="C10" s="72" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -13219,8 +13219,8 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
@@ -13279,8 +13279,8 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -13341,8 +13341,8 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
@@ -13404,10 +13404,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="71">
+      <c r="B14" s="86">
         <v>120</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -13468,8 +13468,8 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
@@ -13528,8 +13528,8 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="72"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -13590,8 +13590,8 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
@@ -13650,8 +13650,8 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -13712,8 +13712,8 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="23" t="s">
         <v>6</v>
       </c>
@@ -13772,8 +13772,8 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="72"/>
-      <c r="C20" s="72" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -13834,8 +13834,8 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
@@ -13894,8 +13894,8 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="72"/>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -13956,8 +13956,8 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
@@ -14019,10 +14019,10 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="71">
+      <c r="B24" s="86">
         <v>180</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -14086,8 +14086,8 @@
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="23" t="s">
         <v>6</v>
       </c>
@@ -14146,8 +14146,8 @@
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="72"/>
-      <c r="C26" s="72" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -14208,8 +14208,8 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="23" t="s">
         <v>6</v>
       </c>
@@ -14268,8 +14268,8 @@
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="72"/>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -14330,8 +14330,8 @@
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
@@ -14390,8 +14390,8 @@
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="72"/>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -14452,8 +14452,8 @@
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="23" t="s">
         <v>6</v>
       </c>
@@ -14512,8 +14512,8 @@
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="72"/>
-      <c r="C32" s="72" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -14574,8 +14574,8 @@
       </c>
     </row>
     <row r="33" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
@@ -14646,10 +14646,10 @@
       <c r="C36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="75">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E36" s="82"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
@@ -14657,10 +14657,10 @@
       <c r="C37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="83">
+      <c r="D37" s="76">
         <v>144.13</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
@@ -14668,10 +14668,10 @@
       <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="83">
+      <c r="D38" s="76">
         <v>132.11000000000001</v>
       </c>
-      <c r="E38" s="83"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="28"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
@@ -14692,27 +14692,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -14725,6 +14704,27 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14756,55 +14756,55 @@
   <sheetData>
     <row r="1" spans="2:23" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="79" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72" t="s">
+      <c r="K2" s="84"/>
+      <c r="L2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="84" t="s">
+      <c r="Q2" s="82"/>
+      <c r="R2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="85"/>
-      <c r="T2" s="80" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="74" t="s">
+      <c r="U2" s="73" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
         <v>20</v>
@@ -14848,14 +14848,14 @@
       <c r="S3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="76"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="74"/>
     </row>
     <row r="4" spans="2:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="71">
+      <c r="B4" s="86">
         <v>60</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -14917,8 +14917,8 @@
       <c r="W4" s="59"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
@@ -14977,8 +14977,8 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -15039,8 +15039,8 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
@@ -15099,8 +15099,8 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -15161,8 +15161,8 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
@@ -15221,8 +15221,8 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="72"/>
-      <c r="C10" s="72" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -15283,8 +15283,8 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
@@ -15343,8 +15343,8 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -15405,8 +15405,8 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
@@ -15465,10 +15465,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="71">
+      <c r="B14" s="86">
         <v>120</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -15529,8 +15529,8 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
@@ -15589,8 +15589,8 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="72"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -15651,8 +15651,8 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
@@ -15711,8 +15711,8 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -15773,8 +15773,8 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="23" t="s">
         <v>6</v>
       </c>
@@ -15833,8 +15833,8 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="72"/>
-      <c r="C20" s="72" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -15895,8 +15895,8 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
@@ -15955,8 +15955,8 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="72"/>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -16017,8 +16017,8 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
@@ -16077,10 +16077,10 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="71">
+      <c r="B24" s="86">
         <v>180</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -16144,8 +16144,8 @@
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="23" t="s">
         <v>6</v>
       </c>
@@ -16204,8 +16204,8 @@
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="72"/>
-      <c r="C26" s="72" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -16266,8 +16266,8 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="23" t="s">
         <v>6</v>
       </c>
@@ -16326,8 +16326,8 @@
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="72"/>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -16388,8 +16388,8 @@
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
@@ -16451,8 +16451,8 @@
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="72"/>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -16513,8 +16513,8 @@
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="23" t="s">
         <v>6</v>
       </c>
@@ -16573,8 +16573,8 @@
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="72"/>
-      <c r="C32" s="72" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -16635,8 +16635,8 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
@@ -16717,10 +16717,10 @@
       <c r="C36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="75">
         <v>0.83799999999999997</v>
       </c>
-      <c r="E36" s="82"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
@@ -16728,10 +16728,10 @@
       <c r="C37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="83">
+      <c r="D37" s="76">
         <v>571.29</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
@@ -16739,10 +16739,10 @@
       <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="83">
+      <c r="D38" s="76">
         <v>445.61</v>
       </c>
-      <c r="E38" s="83"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="28"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
@@ -16763,27 +16763,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -16796,6 +16775,27 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16808,8 +16808,8 @@
   </sheetPr>
   <dimension ref="B1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:E37"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16827,55 +16827,55 @@
   <sheetData>
     <row r="1" spans="2:23" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="79" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72" t="s">
+      <c r="K2" s="84"/>
+      <c r="L2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="84" t="s">
+      <c r="Q2" s="82"/>
+      <c r="R2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="85"/>
-      <c r="T2" s="80" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="74" t="s">
+      <c r="U2" s="73" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
         <v>20</v>
@@ -16919,14 +16919,14 @@
       <c r="S3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="76"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="74"/>
     </row>
     <row r="4" spans="2:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="71">
+      <c r="B4" s="86">
         <v>60</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -16987,8 +16987,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
@@ -17047,8 +17047,8 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -17109,8 +17109,8 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
@@ -17169,8 +17169,8 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -17231,8 +17231,8 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
@@ -17291,8 +17291,8 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="72"/>
-      <c r="C10" s="72" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -17353,8 +17353,8 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
@@ -17413,8 +17413,8 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -17478,8 +17478,8 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
@@ -17541,10 +17541,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="71">
+      <c r="B14" s="86">
         <v>120</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -17605,8 +17605,8 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
@@ -17665,8 +17665,8 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="72"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -17727,8 +17727,8 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
@@ -17787,8 +17787,8 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -17849,8 +17849,8 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="23" t="s">
         <v>6</v>
       </c>
@@ -17909,8 +17909,8 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="72"/>
-      <c r="C20" s="72" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -17971,8 +17971,8 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
@@ -18031,8 +18031,8 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="72"/>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -18093,8 +18093,8 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
@@ -18153,10 +18153,10 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="71">
+      <c r="B24" s="86">
         <v>180</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -18217,8 +18217,8 @@
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="23" t="s">
         <v>6</v>
       </c>
@@ -18277,8 +18277,8 @@
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="72"/>
-      <c r="C26" s="72" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="23" t="s">
@@ -18339,8 +18339,8 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="23" t="s">
         <v>6</v>
       </c>
@@ -18399,8 +18399,8 @@
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="72"/>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
@@ -18461,8 +18461,8 @@
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
@@ -18521,8 +18521,8 @@
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="72"/>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -18583,8 +18583,8 @@
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="23" t="s">
         <v>6</v>
       </c>
@@ -18643,8 +18643,8 @@
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="72"/>
-      <c r="C32" s="72" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="23" t="s">
@@ -18708,8 +18708,8 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
@@ -18783,10 +18783,10 @@
       <c r="C36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="75">
         <v>0.755</v>
       </c>
-      <c r="E36" s="82"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
@@ -18794,10 +18794,10 @@
       <c r="C37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="83">
+      <c r="D37" s="76">
         <v>1173.4000000000001</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
@@ -18805,10 +18805,10 @@
       <c r="C38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="83">
+      <c r="D38" s="76">
         <v>886.07</v>
       </c>
-      <c r="E38" s="83"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="28"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
@@ -18877,27 +18877,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -18910,6 +18889,27 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/03_thesis/Auswertung.xlsx
+++ b/03_thesis/Auswertung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39E0FE0-BBB8-2248-A3BB-03EF455094C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CDFD15-6713-184A-A4E0-48A2A8505079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28980" yWindow="500" windowWidth="39820" windowHeight="28300" activeTab="7" xr2:uid="{5437B52F-85AC-DC42-B195-13DB204C42BF}"/>
   </bookViews>
@@ -1962,207 +1962,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2197,9 +1996,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2207,11 +2003,215 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14623,19 +14623,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="210" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="187" t="s">
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="225" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="188"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="204"/>
     </row>
     <row r="3" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="148" t="s">
@@ -14667,239 +14667,239 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="229" t="s">
+      <c r="B4" s="241" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="230" t="s">
+      <c r="C4" s="239" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="231" t="s">
+      <c r="D4" s="164" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="232">
+      <c r="E4" s="165">
         <v>-0.6791999481166725</v>
       </c>
-      <c r="F4" s="232">
+      <c r="F4" s="165">
         <v>-0.88201659929040122</v>
       </c>
-      <c r="G4" s="232">
+      <c r="G4" s="165">
         <v>-0.86786660037130403</v>
       </c>
-      <c r="H4" s="232">
+      <c r="H4" s="165">
         <v>-0.87258326667766961</v>
       </c>
-      <c r="I4" s="232">
+      <c r="I4" s="165">
         <v>-0.70749994595486698</v>
       </c>
-      <c r="J4" s="232">
+      <c r="J4" s="165">
         <v>-0.75938327532489081</v>
       </c>
-      <c r="L4" s="240" t="s">
+      <c r="L4" s="173" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="202"/>
-      <c r="C5" s="203"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="219"/>
       <c r="D5" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="235">
+      <c r="E5" s="168">
         <v>-0.86459882415974121</v>
       </c>
-      <c r="F5" s="236">
+      <c r="F5" s="169">
         <v>-0.94860216729116598</v>
       </c>
-      <c r="G5" s="236">
+      <c r="G5" s="169">
         <v>-0.94403660519683752</v>
       </c>
-      <c r="H5" s="236">
+      <c r="H5" s="169">
         <v>-0.95095912873451749</v>
       </c>
-      <c r="I5" s="236">
+      <c r="I5" s="169">
         <v>-0.87358805597631073</v>
       </c>
-      <c r="J5" s="236">
+      <c r="J5" s="169">
         <v>-0.8726785444138877</v>
       </c>
-      <c r="L5" s="239" t="s">
+      <c r="L5" s="172" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="202"/>
-      <c r="C6" s="230" t="s">
+      <c r="B6" s="213"/>
+      <c r="C6" s="239" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="231" t="s">
+      <c r="D6" s="164" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="237">
+      <c r="E6" s="170">
         <v>-0.6187771296048894</v>
       </c>
-      <c r="F6" s="232">
+      <c r="F6" s="165">
         <v>-0.36804836852988548</v>
       </c>
-      <c r="G6" s="232">
+      <c r="G6" s="165">
         <v>-0.39352348329151687</v>
       </c>
-      <c r="H6" s="232">
+      <c r="H6" s="165">
         <v>-0.39754586983282714</v>
       </c>
-      <c r="I6" s="232">
+      <c r="I6" s="165">
         <v>-0.58659803727440762</v>
       </c>
-      <c r="J6" s="232">
+      <c r="J6" s="165">
         <v>-0.49274235131050242</v>
       </c>
-      <c r="L6" s="240" t="s">
+      <c r="L6" s="173" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="193"/>
-      <c r="C7" s="194"/>
+      <c r="B7" s="226"/>
+      <c r="C7" s="227"/>
       <c r="D7" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="233">
+      <c r="E7" s="166">
         <v>-0.84307426487926462</v>
       </c>
-      <c r="F7" s="234">
+      <c r="F7" s="167">
         <v>-0.78105697877856295</v>
       </c>
-      <c r="G7" s="234">
+      <c r="G7" s="167">
         <v>-0.79212080655809824</v>
       </c>
-      <c r="H7" s="234">
+      <c r="H7" s="167">
         <v>-0.81386700757302455</v>
       </c>
-      <c r="I7" s="234">
+      <c r="I7" s="167">
         <v>-0.830036672846721</v>
       </c>
-      <c r="J7" s="234">
+      <c r="J7" s="167">
         <v>-0.7573153446717098</v>
       </c>
-      <c r="L7" s="241" t="s">
+      <c r="L7" s="174" t="s">
         <v>185</v>
       </c>
-      <c r="M7" s="242"/>
+      <c r="M7" s="175"/>
     </row>
     <row r="8" spans="2:13" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="243" t="s">
+      <c r="B8" s="240" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="230" t="s">
+      <c r="C8" s="239" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="231" t="s">
+      <c r="D8" s="164" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="232">
+      <c r="E8" s="165">
         <v>0.68863328072940411</v>
       </c>
-      <c r="F8" s="232">
+      <c r="F8" s="165">
         <v>0.84899993514584071</v>
       </c>
-      <c r="G8" s="232">
+      <c r="G8" s="165">
         <v>0.85371660145220651</v>
       </c>
-      <c r="H8" s="232">
+      <c r="H8" s="165">
         <v>0.7074999459548672</v>
       </c>
-      <c r="I8" s="232">
+      <c r="I8" s="165">
         <v>0.79239993946945131</v>
       </c>
-      <c r="J8" s="232">
+      <c r="J8" s="165">
         <v>0.70278327964850151</v>
       </c>
-      <c r="L8" s="240" t="s">
+      <c r="L8" s="173" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="204"/>
-      <c r="C9" s="203"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="219"/>
       <c r="D9" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="238">
+      <c r="E9" s="171">
         <v>0.8900273302818561</v>
       </c>
-      <c r="F9" s="238">
+      <c r="F9" s="171">
         <v>0.96657034523316598</v>
       </c>
-      <c r="G9" s="238">
+      <c r="G9" s="171">
         <v>0.9588128670563304</v>
       </c>
-      <c r="H9" s="238">
+      <c r="H9" s="171">
         <v>0.93200594359512123</v>
       </c>
-      <c r="I9" s="238">
+      <c r="I9" s="171">
         <v>0.9355596719828293</v>
       </c>
-      <c r="J9" s="238">
+      <c r="J9" s="171">
         <v>0.89949089751406608</v>
       </c>
-      <c r="L9" s="239" t="s">
+      <c r="L9" s="172" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="204"/>
-      <c r="C10" s="230" t="s">
+      <c r="B10" s="217"/>
+      <c r="C10" s="239" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="231" t="s">
+      <c r="D10" s="164" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="232">
+      <c r="E10" s="165">
         <v>0.63352588025636025</v>
       </c>
-      <c r="F10" s="232">
+      <c r="F10" s="165">
         <v>0.47799360065903157</v>
       </c>
-      <c r="G10" s="232">
+      <c r="G10" s="165">
         <v>0.4552000769249403</v>
       </c>
-      <c r="H10" s="232">
+      <c r="H10" s="165">
         <v>0.65095622193537117</v>
       </c>
-      <c r="I10" s="232">
+      <c r="I10" s="165">
         <v>0.53162542120983458</v>
       </c>
-      <c r="J10" s="232">
+      <c r="J10" s="165">
         <v>0.62414031165996975</v>
       </c>
-      <c r="L10" s="240" t="s">
+      <c r="L10" s="173" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="197"/>
-      <c r="C11" s="194"/>
+      <c r="B11" s="228"/>
+      <c r="C11" s="227"/>
       <c r="D11" s="149" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="234">
+      <c r="E11" s="167">
         <v>0.8736964949716598</v>
       </c>
-      <c r="F11" s="234">
+      <c r="F11" s="167">
         <v>0.90461767179178654</v>
       </c>
-      <c r="G11" s="234">
+      <c r="G11" s="167">
         <v>0.87414431260797987</v>
       </c>
-      <c r="H11" s="234">
+      <c r="H11" s="167">
         <v>0.92110355352476148</v>
       </c>
-      <c r="I11" s="234">
+      <c r="I11" s="167">
         <v>0.87151434840596409</v>
       </c>
-      <c r="J11" s="234">
+      <c r="J11" s="167">
         <v>0.87733595130890851</v>
       </c>
-      <c r="L11" s="239" t="s">
+      <c r="L11" s="172" t="s">
         <v>189</v>
       </c>
     </row>
@@ -14910,140 +14910,140 @@
       </c>
     </row>
     <row r="20" spans="13:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M20" s="245" t="s">
+      <c r="M20" s="237" t="s">
         <v>193</v>
       </c>
-      <c r="N20" s="246" t="s">
+      <c r="N20" s="238" t="s">
         <v>192</v>
       </c>
-      <c r="O20" s="246"/>
+      <c r="O20" s="238"/>
     </row>
     <row r="21" spans="13:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="M21" s="245"/>
-      <c r="N21" s="247" t="s">
+      <c r="M21" s="237"/>
+      <c r="N21" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="247" t="s">
+      <c r="O21" s="177" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="13:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M22" s="248">
+      <c r="M22" s="178">
         <v>1</v>
       </c>
-      <c r="N22" s="246" t="s">
+      <c r="N22" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="248" t="s">
+      <c r="O22" s="178" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="13:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M23" s="248">
+      <c r="M23" s="178">
         <v>2</v>
       </c>
-      <c r="N23" s="246"/>
-      <c r="O23" s="248" t="s">
+      <c r="N23" s="238"/>
+      <c r="O23" s="178" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="13:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M24" s="248">
+      <c r="M24" s="178">
         <v>3</v>
       </c>
-      <c r="N24" s="246" t="s">
+      <c r="N24" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="248" t="s">
+      <c r="O24" s="178" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="13:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M25" s="248">
+      <c r="M25" s="178">
         <v>4</v>
       </c>
-      <c r="N25" s="246"/>
-      <c r="O25" s="248" t="s">
+      <c r="N25" s="238"/>
+      <c r="O25" s="178" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="13:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M26" s="248">
+      <c r="M26" s="178">
         <v>5</v>
       </c>
-      <c r="N26" s="246" t="s">
+      <c r="N26" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="248" t="s">
+      <c r="O26" s="178" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="13:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M27" s="248">
+      <c r="M27" s="178">
         <v>6</v>
       </c>
-      <c r="N27" s="246"/>
-      <c r="O27" s="248" t="s">
+      <c r="N27" s="238"/>
+      <c r="O27" s="178" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="13:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M28" s="248">
+      <c r="M28" s="178">
         <v>7</v>
       </c>
-      <c r="N28" s="246" t="s">
+      <c r="N28" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="O28" s="248" t="s">
+      <c r="O28" s="178" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="13:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M29" s="248">
+      <c r="M29" s="178">
         <v>8</v>
       </c>
-      <c r="N29" s="246"/>
-      <c r="O29" s="248" t="s">
+      <c r="N29" s="238"/>
+      <c r="O29" s="178" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="13:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M30" s="248">
+      <c r="M30" s="178">
         <v>9</v>
       </c>
-      <c r="N30" s="246" t="s">
+      <c r="N30" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="O30" s="248" t="s">
+      <c r="O30" s="178" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="13:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M31" s="248">
+      <c r="M31" s="178">
         <v>10</v>
       </c>
-      <c r="N31" s="246"/>
-      <c r="O31" s="248" t="s">
+      <c r="N31" s="238"/>
+      <c r="O31" s="178" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J11">
     <cfRule type="colorScale" priority="1">
@@ -15282,11 +15282,11 @@
         <f t="shared" si="2"/>
         <v>8.6071579202150972E-2</v>
       </c>
-      <c r="G9" s="222" t="s">
+      <c r="G9" s="242" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="223"/>
-      <c r="I9" s="224"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="244"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="108">
@@ -15307,12 +15307,12 @@
         <f t="shared" si="2"/>
         <v>7.31097021442354E-2</v>
       </c>
-      <c r="G10" s="225">
+      <c r="G10" s="245">
         <f>MAX(E2:E31)</f>
         <v>8.6498389394712993E-2</v>
       </c>
-      <c r="H10" s="225"/>
-      <c r="I10" s="225"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="245"/>
       <c r="K10" s="118" t="s">
         <v>128</v>
       </c>
@@ -15365,11 +15365,11 @@
         <f t="shared" si="2"/>
         <v>2.8809996141345884E-2</v>
       </c>
-      <c r="G12" s="222" t="s">
+      <c r="G12" s="242" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="223"/>
-      <c r="I12" s="224"/>
+      <c r="H12" s="243"/>
+      <c r="I12" s="244"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="108">
@@ -15390,11 +15390,11 @@
         <f t="shared" si="2"/>
         <v>8.6972263705842878E-3</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="246">
         <v>0.2417</v>
       </c>
-      <c r="H13" s="227"/>
-      <c r="I13" s="228"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="248"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="108">
@@ -15814,51 +15814,51 @@
   <sheetData>
     <row r="1" spans="2:24" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="170" t="s">
+      <c r="F2" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171" t="s">
+      <c r="G2" s="180"/>
+      <c r="H2" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171" t="s">
+      <c r="I2" s="180"/>
+      <c r="J2" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171" t="s">
+      <c r="K2" s="180"/>
+      <c r="L2" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171" t="s">
+      <c r="M2" s="180"/>
+      <c r="N2" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="172"/>
-      <c r="P2" s="169" t="s">
+      <c r="O2" s="189"/>
+      <c r="P2" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="164" t="s">
+      <c r="Q2" s="187"/>
+      <c r="R2" s="182" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="165"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="174"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
@@ -15895,13 +15895,13 @@
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="165"/>
+      <c r="R3" s="183"/>
     </row>
     <row r="4" spans="2:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="175">
+      <c r="B4" s="179">
         <v>60</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -15955,8 +15955,8 @@
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
@@ -16008,8 +16008,8 @@
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="171"/>
-      <c r="C6" s="171" t="s">
+      <c r="B6" s="180"/>
+      <c r="C6" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -16063,8 +16063,8 @@
       <c r="S6" s="12"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
@@ -16120,8 +16120,8 @@
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="171"/>
-      <c r="C8" s="171" t="s">
+      <c r="B8" s="180"/>
+      <c r="C8" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -16175,8 +16175,8 @@
       <c r="S8" s="12"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
       <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
@@ -16228,8 +16228,8 @@
       <c r="S9" s="12"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="171"/>
-      <c r="C10" s="171" t="s">
+      <c r="B10" s="180"/>
+      <c r="C10" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -16283,8 +16283,8 @@
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
       <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
@@ -16336,8 +16336,8 @@
       <c r="S11" s="12"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="171"/>
-      <c r="C12" s="171" t="s">
+      <c r="B12" s="180"/>
+      <c r="C12" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -16391,8 +16391,8 @@
       <c r="S12" s="12"/>
     </row>
     <row r="13" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="38" t="s">
         <v>1</v>
       </c>
@@ -16444,10 +16444,10 @@
       <c r="S13" s="12"/>
     </row>
     <row r="14" spans="2:24" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="175">
+      <c r="B14" s="179">
         <v>120</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -16501,8 +16501,8 @@
       <c r="S14" s="12"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="180"/>
       <c r="D15" s="34" t="s">
         <v>1</v>
       </c>
@@ -16554,8 +16554,8 @@
       <c r="S15" s="12"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="171"/>
-      <c r="C16" s="171" t="s">
+      <c r="B16" s="180"/>
+      <c r="C16" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -16609,8 +16609,8 @@
       <c r="S16" s="12"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
       <c r="D17" s="34" t="s">
         <v>1</v>
       </c>
@@ -16662,8 +16662,8 @@
       <c r="S17" s="12"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="171"/>
-      <c r="C18" s="171" t="s">
+      <c r="B18" s="180"/>
+      <c r="C18" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -16721,8 +16721,8 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
@@ -16774,8 +16774,8 @@
       <c r="S19" s="12"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="171"/>
-      <c r="C20" s="171" t="s">
+      <c r="B20" s="180"/>
+      <c r="C20" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -16834,8 +16834,8 @@
       <c r="X20" s="5"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="171"/>
-      <c r="C21" s="171"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
       <c r="D21" s="34" t="s">
         <v>1</v>
       </c>
@@ -16887,8 +16887,8 @@
       <c r="S21" s="12"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="171"/>
-      <c r="C22" s="171" t="s">
+      <c r="B22" s="180"/>
+      <c r="C22" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -16946,8 +16946,8 @@
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="176"/>
-      <c r="C23" s="176"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="38" t="s">
         <v>1</v>
       </c>
@@ -16999,10 +16999,10 @@
       <c r="S23" s="12"/>
     </row>
     <row r="24" spans="2:24" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="175">
+      <c r="B24" s="179">
         <v>180</v>
       </c>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -17056,8 +17056,8 @@
       <c r="S24" s="12"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180"/>
       <c r="D25" s="34" t="s">
         <v>1</v>
       </c>
@@ -17109,8 +17109,8 @@
       <c r="S25" s="12"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="171"/>
-      <c r="C26" s="171" t="s">
+      <c r="B26" s="180"/>
+      <c r="C26" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -17168,8 +17168,8 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
       <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
@@ -17225,8 +17225,8 @@
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="171"/>
-      <c r="C28" s="171" t="s">
+      <c r="B28" s="180"/>
+      <c r="C28" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -17284,8 +17284,8 @@
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
       <c r="D29" s="34" t="s">
         <v>1</v>
       </c>
@@ -17341,8 +17341,8 @@
       <c r="W29" s="5"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="171"/>
-      <c r="C30" s="171" t="s">
+      <c r="B30" s="180"/>
+      <c r="C30" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -17400,8 +17400,8 @@
       <c r="W30" s="5"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="180"/>
       <c r="D31" s="34" t="s">
         <v>1</v>
       </c>
@@ -17457,8 +17457,8 @@
       <c r="W31" s="5"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="171"/>
-      <c r="C32" s="171" t="s">
+      <c r="B32" s="180"/>
+      <c r="C32" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -17512,8 +17512,8 @@
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="38" t="s">
         <v>1</v>
       </c>
@@ -17613,24 +17613,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -17642,6 +17624,24 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -17683,51 +17683,51 @@
   <sheetData>
     <row r="1" spans="2:25" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="170" t="s">
+      <c r="F2" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171" t="s">
+      <c r="G2" s="180"/>
+      <c r="H2" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171" t="s">
+      <c r="I2" s="180"/>
+      <c r="J2" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171" t="s">
+      <c r="K2" s="180"/>
+      <c r="L2" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171" t="s">
+      <c r="M2" s="180"/>
+      <c r="N2" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="172"/>
-      <c r="P2" s="169" t="s">
+      <c r="O2" s="189"/>
+      <c r="P2" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="164" t="s">
+      <c r="Q2" s="187"/>
+      <c r="R2" s="182" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="165"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="174"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="41" t="s">
         <v>9</v>
       </c>
@@ -17764,13 +17764,13 @@
       <c r="Q3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="165"/>
+      <c r="R3" s="183"/>
     </row>
     <row r="4" spans="2:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="175">
+      <c r="B4" s="179">
         <v>60</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -17825,8 +17825,8 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
@@ -17879,8 +17879,8 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="171"/>
-      <c r="C6" s="171" t="s">
+      <c r="B6" s="180"/>
+      <c r="C6" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -17935,8 +17935,8 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
@@ -17989,8 +17989,8 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="171"/>
-      <c r="C8" s="171" t="s">
+      <c r="B8" s="180"/>
+      <c r="C8" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -18045,8 +18045,8 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
       <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
@@ -18099,8 +18099,8 @@
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B10" s="171"/>
-      <c r="C10" s="171" t="s">
+      <c r="B10" s="180"/>
+      <c r="C10" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -18155,8 +18155,8 @@
       <c r="U10" s="5"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
       <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
@@ -18207,8 +18207,8 @@
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="171"/>
-      <c r="C12" s="171" t="s">
+      <c r="B12" s="180"/>
+      <c r="C12" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -18263,8 +18263,8 @@
       <c r="U12" s="5"/>
     </row>
     <row r="13" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="38" t="s">
         <v>1</v>
       </c>
@@ -18321,10 +18321,10 @@
       <c r="Y13" s="5"/>
     </row>
     <row r="14" spans="2:25" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="175">
+      <c r="B14" s="179">
         <v>120</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -18383,8 +18383,8 @@
       <c r="Y14" s="5"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="180"/>
       <c r="D15" s="34" t="s">
         <v>1</v>
       </c>
@@ -18440,8 +18440,8 @@
       <c r="Y15" s="5"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="171"/>
-      <c r="C16" s="171" t="s">
+      <c r="B16" s="180"/>
+      <c r="C16" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -18500,8 +18500,8 @@
       <c r="Y16" s="5"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
       <c r="D17" s="34" t="s">
         <v>1</v>
       </c>
@@ -18558,8 +18558,8 @@
       <c r="Y17" s="5"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="171"/>
-      <c r="C18" s="171" t="s">
+      <c r="B18" s="180"/>
+      <c r="C18" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -18618,8 +18618,8 @@
       <c r="Y18" s="5"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
@@ -18676,8 +18676,8 @@
       <c r="Y19" s="5"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B20" s="171"/>
-      <c r="C20" s="171" t="s">
+      <c r="B20" s="180"/>
+      <c r="C20" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -18735,8 +18735,8 @@
       <c r="Y20" s="5"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="171"/>
-      <c r="C21" s="171"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
       <c r="D21" s="34" t="s">
         <v>1</v>
       </c>
@@ -18792,8 +18792,8 @@
       <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B22" s="171"/>
-      <c r="C22" s="171" t="s">
+      <c r="B22" s="180"/>
+      <c r="C22" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -18852,8 +18852,8 @@
       <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="176"/>
-      <c r="C23" s="176"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="38" t="s">
         <v>1</v>
       </c>
@@ -18905,10 +18905,10 @@
       <c r="T23" s="13"/>
     </row>
     <row r="24" spans="2:25" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="175">
+      <c r="B24" s="179">
         <v>180</v>
       </c>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -18962,8 +18962,8 @@
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180"/>
       <c r="D25" s="34" t="s">
         <v>1</v>
       </c>
@@ -19015,8 +19015,8 @@
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B26" s="171"/>
-      <c r="C26" s="171" t="s">
+      <c r="B26" s="180"/>
+      <c r="C26" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -19070,8 +19070,8 @@
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
       <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
@@ -19123,8 +19123,8 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B28" s="171"/>
-      <c r="C28" s="171" t="s">
+      <c r="B28" s="180"/>
+      <c r="C28" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -19178,8 +19178,8 @@
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
       <c r="D29" s="34" t="s">
         <v>1</v>
       </c>
@@ -19230,8 +19230,8 @@
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="171"/>
-      <c r="C30" s="171" t="s">
+      <c r="B30" s="180"/>
+      <c r="C30" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -19284,8 +19284,8 @@
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="180"/>
       <c r="D31" s="34" t="s">
         <v>1</v>
       </c>
@@ -19336,8 +19336,8 @@
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B32" s="171"/>
-      <c r="C32" s="171" t="s">
+      <c r="B32" s="180"/>
+      <c r="C32" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -19390,8 +19390,8 @@
       </c>
     </row>
     <row r="33" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="38" t="s">
         <v>1</v>
       </c>
@@ -19501,6 +19501,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -19512,24 +19530,6 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19570,51 +19570,51 @@
   <sheetData>
     <row r="1" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="170" t="s">
+      <c r="F2" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171" t="s">
+      <c r="G2" s="180"/>
+      <c r="H2" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171" t="s">
+      <c r="I2" s="180"/>
+      <c r="J2" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171" t="s">
+      <c r="K2" s="180"/>
+      <c r="L2" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171" t="s">
+      <c r="M2" s="180"/>
+      <c r="N2" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="172"/>
-      <c r="P2" s="169" t="s">
+      <c r="O2" s="189"/>
+      <c r="P2" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="164" t="s">
+      <c r="Q2" s="187"/>
+      <c r="R2" s="182" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="165"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="174"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
@@ -19651,13 +19651,13 @@
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="165"/>
+      <c r="R3" s="183"/>
     </row>
     <row r="4" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="175">
+      <c r="B4" s="179">
         <v>60</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -19710,8 +19710,8 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
@@ -19762,8 +19762,8 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="171"/>
-      <c r="C6" s="171" t="s">
+      <c r="B6" s="180"/>
+      <c r="C6" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -19816,8 +19816,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
@@ -19868,8 +19868,8 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="171"/>
-      <c r="C8" s="171" t="s">
+      <c r="B8" s="180"/>
+      <c r="C8" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -19922,8 +19922,8 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
       <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
@@ -19974,8 +19974,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="171"/>
-      <c r="C10" s="171" t="s">
+      <c r="B10" s="180"/>
+      <c r="C10" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -20028,8 +20028,8 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
       <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
@@ -20080,8 +20080,8 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="171"/>
-      <c r="C12" s="171" t="s">
+      <c r="B12" s="180"/>
+      <c r="C12" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -20134,8 +20134,8 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="38" t="s">
         <v>1</v>
       </c>
@@ -20187,10 +20187,10 @@
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="2:20" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="175">
+      <c r="B14" s="179">
         <v>120</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -20243,8 +20243,8 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="180"/>
       <c r="D15" s="34" t="s">
         <v>1</v>
       </c>
@@ -20295,8 +20295,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="171"/>
-      <c r="C16" s="171" t="s">
+      <c r="B16" s="180"/>
+      <c r="C16" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -20349,8 +20349,8 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
       <c r="D17" s="34" t="s">
         <v>1</v>
       </c>
@@ -20401,8 +20401,8 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="171"/>
-      <c r="C18" s="171" t="s">
+      <c r="B18" s="180"/>
+      <c r="C18" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -20455,8 +20455,8 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
@@ -20507,8 +20507,8 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="171"/>
-      <c r="C20" s="171" t="s">
+      <c r="B20" s="180"/>
+      <c r="C20" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -20561,8 +20561,8 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="171"/>
-      <c r="C21" s="171"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
       <c r="D21" s="34" t="s">
         <v>1</v>
       </c>
@@ -20613,8 +20613,8 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="171"/>
-      <c r="C22" s="171" t="s">
+      <c r="B22" s="180"/>
+      <c r="C22" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -20667,8 +20667,8 @@
       </c>
     </row>
     <row r="23" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="176"/>
-      <c r="C23" s="176"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="38" t="s">
         <v>1</v>
       </c>
@@ -20720,10 +20720,10 @@
       <c r="T23" s="13"/>
     </row>
     <row r="24" spans="2:20" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="175">
+      <c r="B24" s="179">
         <v>180</v>
       </c>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -20776,8 +20776,8 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180"/>
       <c r="D25" s="34" t="s">
         <v>1</v>
       </c>
@@ -20828,8 +20828,8 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="171"/>
-      <c r="C26" s="171" t="s">
+      <c r="B26" s="180"/>
+      <c r="C26" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -20882,8 +20882,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
       <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
@@ -20934,8 +20934,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="171"/>
-      <c r="C28" s="171" t="s">
+      <c r="B28" s="180"/>
+      <c r="C28" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -20988,8 +20988,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
       <c r="D29" s="34" t="s">
         <v>1</v>
       </c>
@@ -21040,8 +21040,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="171"/>
-      <c r="C30" s="171" t="s">
+      <c r="B30" s="180"/>
+      <c r="C30" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -21094,8 +21094,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="180"/>
       <c r="D31" s="34" t="s">
         <v>1</v>
       </c>
@@ -21146,8 +21146,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="171"/>
-      <c r="C32" s="171" t="s">
+      <c r="B32" s="180"/>
+      <c r="C32" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -21200,8 +21200,8 @@
       </c>
     </row>
     <row r="33" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="38" t="s">
         <v>1</v>
       </c>
@@ -21291,6 +21291,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -21302,24 +21320,6 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21360,51 +21360,51 @@
   <sheetData>
     <row r="1" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="170" t="s">
+      <c r="F2" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171" t="s">
+      <c r="G2" s="180"/>
+      <c r="H2" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171" t="s">
+      <c r="I2" s="180"/>
+      <c r="J2" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171" t="s">
+      <c r="K2" s="180"/>
+      <c r="L2" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171" t="s">
+      <c r="M2" s="180"/>
+      <c r="N2" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="172"/>
-      <c r="P2" s="169" t="s">
+      <c r="O2" s="189"/>
+      <c r="P2" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="164" t="s">
+      <c r="Q2" s="187"/>
+      <c r="R2" s="182" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="165"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="174"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
@@ -21441,13 +21441,13 @@
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="165"/>
+      <c r="R3" s="183"/>
     </row>
     <row r="4" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="175">
+      <c r="B4" s="179">
         <v>60</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -21501,8 +21501,8 @@
       <c r="T4" s="13"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
@@ -21553,8 +21553,8 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="171"/>
-      <c r="C6" s="171" t="s">
+      <c r="B6" s="180"/>
+      <c r="C6" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -21607,8 +21607,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
@@ -21659,8 +21659,8 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="171"/>
-      <c r="C8" s="171" t="s">
+      <c r="B8" s="180"/>
+      <c r="C8" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -21713,8 +21713,8 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
       <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
@@ -21765,8 +21765,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="171"/>
-      <c r="C10" s="171" t="s">
+      <c r="B10" s="180"/>
+      <c r="C10" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -21819,8 +21819,8 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
       <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
@@ -21871,8 +21871,8 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="171"/>
-      <c r="C12" s="171" t="s">
+      <c r="B12" s="180"/>
+      <c r="C12" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -21925,8 +21925,8 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="38" t="s">
         <v>1</v>
       </c>
@@ -21977,10 +21977,10 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="175">
+      <c r="B14" s="179">
         <v>120</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -22033,8 +22033,8 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="180"/>
       <c r="D15" s="34" t="s">
         <v>1</v>
       </c>
@@ -22085,8 +22085,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="171"/>
-      <c r="C16" s="171" t="s">
+      <c r="B16" s="180"/>
+      <c r="C16" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -22139,8 +22139,8 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
       <c r="D17" s="34" t="s">
         <v>1</v>
       </c>
@@ -22191,8 +22191,8 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="171"/>
-      <c r="C18" s="171" t="s">
+      <c r="B18" s="180"/>
+      <c r="C18" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -22245,8 +22245,8 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
@@ -22297,8 +22297,8 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="171"/>
-      <c r="C20" s="171" t="s">
+      <c r="B20" s="180"/>
+      <c r="C20" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -22351,8 +22351,8 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="171"/>
-      <c r="C21" s="171"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
       <c r="D21" s="34" t="s">
         <v>1</v>
       </c>
@@ -22403,8 +22403,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="171"/>
-      <c r="C22" s="171" t="s">
+      <c r="B22" s="180"/>
+      <c r="C22" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -22457,8 +22457,8 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="176"/>
-      <c r="C23" s="176"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="38" t="s">
         <v>1</v>
       </c>
@@ -22509,10 +22509,10 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="175">
+      <c r="B24" s="179">
         <v>180</v>
       </c>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -22565,8 +22565,8 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180"/>
       <c r="D25" s="34" t="s">
         <v>1</v>
       </c>
@@ -22617,8 +22617,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="171"/>
-      <c r="C26" s="171" t="s">
+      <c r="B26" s="180"/>
+      <c r="C26" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -22671,8 +22671,8 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
       <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
@@ -22723,8 +22723,8 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="171"/>
-      <c r="C28" s="171" t="s">
+      <c r="B28" s="180"/>
+      <c r="C28" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -22777,8 +22777,8 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
       <c r="D29" s="34" t="s">
         <v>1</v>
       </c>
@@ -22829,8 +22829,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="171"/>
-      <c r="C30" s="171" t="s">
+      <c r="B30" s="180"/>
+      <c r="C30" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -22883,8 +22883,8 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="180"/>
       <c r="D31" s="34" t="s">
         <v>1</v>
       </c>
@@ -22935,8 +22935,8 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="171"/>
-      <c r="C32" s="171" t="s">
+      <c r="B32" s="180"/>
+      <c r="C32" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -22989,8 +22989,8 @@
       </c>
     </row>
     <row r="33" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="38" t="s">
         <v>1</v>
       </c>
@@ -23083,6 +23083,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -23094,24 +23112,6 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23152,51 +23152,51 @@
   <sheetData>
     <row r="1" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="170" t="s">
+      <c r="F2" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="171"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="180"/>
+      <c r="H2" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171" t="s">
+      <c r="K2" s="180"/>
+      <c r="L2" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171" t="s">
+      <c r="M2" s="180"/>
+      <c r="N2" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="172"/>
-      <c r="P2" s="169" t="s">
+      <c r="O2" s="189"/>
+      <c r="P2" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="164" t="s">
+      <c r="Q2" s="187"/>
+      <c r="R2" s="182" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="165"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="174"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
@@ -23233,13 +23233,13 @@
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="165"/>
+      <c r="R3" s="183"/>
     </row>
     <row r="4" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="175">
+      <c r="B4" s="179">
         <v>60</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -23292,8 +23292,8 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
@@ -23344,8 +23344,8 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="171"/>
-      <c r="C6" s="171" t="s">
+      <c r="B6" s="180"/>
+      <c r="C6" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -23398,8 +23398,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
@@ -23450,8 +23450,8 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="171"/>
-      <c r="C8" s="171" t="s">
+      <c r="B8" s="180"/>
+      <c r="C8" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -23504,8 +23504,8 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
       <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
@@ -23556,8 +23556,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="171"/>
-      <c r="C10" s="171" t="s">
+      <c r="B10" s="180"/>
+      <c r="C10" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -23610,8 +23610,8 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
       <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
@@ -23662,8 +23662,8 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="171"/>
-      <c r="C12" s="171" t="s">
+      <c r="B12" s="180"/>
+      <c r="C12" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -23719,8 +23719,8 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="38" t="s">
         <v>1</v>
       </c>
@@ -23774,10 +23774,10 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="175">
+      <c r="B14" s="179">
         <v>120</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -23830,8 +23830,8 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="180"/>
       <c r="D15" s="34" t="s">
         <v>1</v>
       </c>
@@ -23882,8 +23882,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="171"/>
-      <c r="C16" s="171" t="s">
+      <c r="B16" s="180"/>
+      <c r="C16" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -23936,8 +23936,8 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
       <c r="D17" s="34" t="s">
         <v>1</v>
       </c>
@@ -23988,8 +23988,8 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="171"/>
-      <c r="C18" s="171" t="s">
+      <c r="B18" s="180"/>
+      <c r="C18" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -24042,8 +24042,8 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
@@ -24094,8 +24094,8 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="171"/>
-      <c r="C20" s="171" t="s">
+      <c r="B20" s="180"/>
+      <c r="C20" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -24148,8 +24148,8 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="171"/>
-      <c r="C21" s="171"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
       <c r="D21" s="34" t="s">
         <v>1</v>
       </c>
@@ -24200,8 +24200,8 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="171"/>
-      <c r="C22" s="171" t="s">
+      <c r="B22" s="180"/>
+      <c r="C22" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -24254,8 +24254,8 @@
       </c>
     </row>
     <row r="23" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="176"/>
-      <c r="C23" s="176"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="38" t="s">
         <v>1</v>
       </c>
@@ -24306,10 +24306,10 @@
       </c>
     </row>
     <row r="24" spans="2:20" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="175">
+      <c r="B24" s="179">
         <v>180</v>
       </c>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -24362,8 +24362,8 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180"/>
       <c r="D25" s="34" t="s">
         <v>1</v>
       </c>
@@ -24414,8 +24414,8 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="171"/>
-      <c r="C26" s="171" t="s">
+      <c r="B26" s="180"/>
+      <c r="C26" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -24469,8 +24469,8 @@
       <c r="T26" s="12"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
       <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
@@ -24521,8 +24521,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="171"/>
-      <c r="C28" s="171" t="s">
+      <c r="B28" s="180"/>
+      <c r="C28" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -24575,8 +24575,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
       <c r="D29" s="34" t="s">
         <v>1</v>
       </c>
@@ -24627,8 +24627,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="171"/>
-      <c r="C30" s="171" t="s">
+      <c r="B30" s="180"/>
+      <c r="C30" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -24681,8 +24681,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="180"/>
       <c r="D31" s="34" t="s">
         <v>1</v>
       </c>
@@ -24733,8 +24733,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="171"/>
-      <c r="C32" s="171" t="s">
+      <c r="B32" s="180"/>
+      <c r="C32" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -24790,8 +24790,8 @@
       </c>
     </row>
     <row r="33" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="38" t="s">
         <v>1</v>
       </c>
@@ -24932,6 +24932,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -24943,24 +24961,6 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25002,51 +25002,51 @@
   <sheetData>
     <row r="1" spans="2:23" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="170"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="188"/>
+      <c r="H2" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="170"/>
-      <c r="J2" s="177" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="170"/>
-      <c r="L2" s="177" t="s">
+      <c r="K2" s="188"/>
+      <c r="L2" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="170"/>
-      <c r="N2" s="177" t="s">
+      <c r="M2" s="188"/>
+      <c r="N2" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="179"/>
-      <c r="P2" s="169" t="s">
+      <c r="O2" s="194"/>
+      <c r="P2" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="164" t="s">
+      <c r="Q2" s="187"/>
+      <c r="R2" s="182" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="165"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="174"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
@@ -25083,13 +25083,13 @@
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="165"/>
+      <c r="R3" s="183"/>
     </row>
     <row r="4" spans="2:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="175">
+      <c r="B4" s="179">
         <v>60</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -25142,8 +25142,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
@@ -25194,8 +25194,8 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="171"/>
-      <c r="C6" s="171" t="s">
+      <c r="B6" s="180"/>
+      <c r="C6" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -25248,8 +25248,8 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
@@ -25300,8 +25300,8 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="171"/>
-      <c r="C8" s="171" t="s">
+      <c r="B8" s="180"/>
+      <c r="C8" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -25354,8 +25354,8 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
       <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
@@ -25406,8 +25406,8 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="171"/>
-      <c r="C10" s="171" t="s">
+      <c r="B10" s="180"/>
+      <c r="C10" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -25460,8 +25460,8 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
       <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
@@ -25512,8 +25512,8 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="171"/>
-      <c r="C12" s="171" t="s">
+      <c r="B12" s="180"/>
+      <c r="C12" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -25566,8 +25566,8 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="38" t="s">
         <v>1</v>
       </c>
@@ -25619,10 +25619,10 @@
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="175">
+      <c r="B14" s="179">
         <v>120</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -25675,8 +25675,8 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="180"/>
       <c r="D15" s="34" t="s">
         <v>1</v>
       </c>
@@ -25727,8 +25727,8 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="171"/>
-      <c r="C16" s="171" t="s">
+      <c r="B16" s="180"/>
+      <c r="C16" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -25785,8 +25785,8 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
       <c r="D17" s="34" t="s">
         <v>1</v>
       </c>
@@ -25841,8 +25841,8 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="171"/>
-      <c r="C18" s="171" t="s">
+      <c r="B18" s="180"/>
+      <c r="C18" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -25899,8 +25899,8 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
@@ -25955,8 +25955,8 @@
       <c r="W19" s="5"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="171"/>
-      <c r="C20" s="171" t="s">
+      <c r="B20" s="180"/>
+      <c r="C20" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -26013,8 +26013,8 @@
       <c r="W20" s="5"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="171"/>
-      <c r="C21" s="171"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
       <c r="D21" s="34" t="s">
         <v>1</v>
       </c>
@@ -26069,8 +26069,8 @@
       <c r="W21" s="5"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="171"/>
-      <c r="C22" s="171" t="s">
+      <c r="B22" s="180"/>
+      <c r="C22" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -26127,8 +26127,8 @@
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="176"/>
-      <c r="C23" s="176"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="38" t="s">
         <v>1</v>
       </c>
@@ -26182,10 +26182,10 @@
       <c r="W23" s="5"/>
     </row>
     <row r="24" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="175">
+      <c r="B24" s="179">
         <v>180</v>
       </c>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="179" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -26241,8 +26241,8 @@
       <c r="W24" s="5"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180"/>
       <c r="D25" s="34" t="s">
         <v>1</v>
       </c>
@@ -26297,8 +26297,8 @@
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="171"/>
-      <c r="C26" s="171" t="s">
+      <c r="B26" s="180"/>
+      <c r="C26" s="180" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -26355,8 +26355,8 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
       <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
@@ -26411,8 +26411,8 @@
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="171"/>
-      <c r="C28" s="171" t="s">
+      <c r="B28" s="180"/>
+      <c r="C28" s="180" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -26469,8 +26469,8 @@
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
       <c r="D29" s="34" t="s">
         <v>1</v>
       </c>
@@ -26525,8 +26525,8 @@
       <c r="W29" s="5"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="171"/>
-      <c r="C30" s="171" t="s">
+      <c r="B30" s="180"/>
+      <c r="C30" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -26583,8 +26583,8 @@
       <c r="W30" s="5"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="180"/>
       <c r="D31" s="34" t="s">
         <v>1</v>
       </c>
@@ -26639,8 +26639,8 @@
       <c r="W31" s="5"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="171"/>
-      <c r="C32" s="171" t="s">
+      <c r="B32" s="180"/>
+      <c r="C32" s="180" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -26697,8 +26697,8 @@
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="38" t="s">
         <v>1</v>
       </c>
@@ -26801,6 +26801,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -26812,24 +26830,6 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26842,8 +26842,8 @@
   </sheetPr>
   <dimension ref="B1:AN231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26884,16 +26884,16 @@
   <sheetData>
     <row r="1" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="209" t="s">
+      <c r="E2" s="207" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="205" t="s">
@@ -26922,10 +26922,10 @@
       <c r="Q2" s="206"/>
     </row>
     <row r="3" spans="2:32" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="189"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="210"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="208"/>
       <c r="F3" s="78" t="s">
         <v>87</v>
       </c>
@@ -26964,10 +26964,10 @@
       </c>
     </row>
     <row r="4" spans="2:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="207">
+      <c r="B4" s="209">
         <v>60</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="C4" s="209" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="44" t="s">
@@ -27017,8 +27017,8 @@
       </c>
     </row>
     <row r="5" spans="2:32" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="200"/>
-      <c r="C5" s="208"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="212"/>
       <c r="D5" s="45" t="s">
         <v>1</v>
       </c>
@@ -27061,28 +27061,28 @@
       <c r="Q5" s="85">
         <v>11.169763684104211</v>
       </c>
-      <c r="T5" s="186" t="s">
+      <c r="T5" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="187"/>
-      <c r="V5" s="186" t="s">
+      <c r="U5" s="225"/>
+      <c r="V5" s="203" t="s">
         <v>159</v>
       </c>
-      <c r="W5" s="187"/>
-      <c r="X5" s="187"/>
-      <c r="Y5" s="187"/>
-      <c r="Z5" s="187"/>
-      <c r="AA5" s="187"/>
-      <c r="AB5" s="187"/>
-      <c r="AC5" s="188"/>
+      <c r="W5" s="225"/>
+      <c r="X5" s="225"/>
+      <c r="Y5" s="225"/>
+      <c r="Z5" s="225"/>
+      <c r="AA5" s="225"/>
+      <c r="AB5" s="225"/>
+      <c r="AC5" s="204"/>
       <c r="AD5" s="104"/>
       <c r="AF5" s="103" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="200"/>
-      <c r="C6" s="207" t="s">
+      <c r="B6" s="210"/>
+      <c r="C6" s="209" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="44" t="s">
@@ -27161,8 +27161,8 @@
       </c>
     </row>
     <row r="7" spans="2:32" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="200"/>
-      <c r="C7" s="208"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="212"/>
       <c r="D7" s="45" t="s">
         <v>1</v>
       </c>
@@ -27205,10 +27205,10 @@
       <c r="Q7" s="85">
         <v>8.9771763280145507</v>
       </c>
-      <c r="T7" s="202" t="s">
+      <c r="T7" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="U7" s="203" t="s">
+      <c r="U7" s="219" t="s">
         <v>164</v>
       </c>
       <c r="V7" s="134" t="s">
@@ -27235,13 +27235,13 @@
       <c r="AC7" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="AD7" s="198"/>
+      <c r="AD7" s="222"/>
       <c r="AF7" s="103" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="200"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="142"/>
       <c r="D8" s="142"/>
       <c r="E8" s="143"/>
@@ -27257,8 +27257,8 @@
       <c r="O8" s="145"/>
       <c r="P8" s="144"/>
       <c r="Q8" s="145"/>
-      <c r="T8" s="190"/>
-      <c r="U8" s="192"/>
+      <c r="T8" s="224"/>
+      <c r="U8" s="220"/>
       <c r="V8" s="89" t="s">
         <v>158</v>
       </c>
@@ -27283,12 +27283,12 @@
       <c r="AC8" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="AD8" s="198"/>
+      <c r="AD8" s="222"/>
       <c r="AF8" s="103"/>
     </row>
     <row r="9" spans="2:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="200"/>
-      <c r="C9" s="207" t="s">
+      <c r="B9" s="210"/>
+      <c r="C9" s="209" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -27333,10 +27333,10 @@
       <c r="Q9" s="82">
         <v>8.9730357503534748</v>
       </c>
-      <c r="T9" s="189" t="s">
+      <c r="T9" s="211" t="s">
         <v>79</v>
       </c>
-      <c r="U9" s="191" t="s">
+      <c r="U9" s="215" t="s">
         <v>163</v>
       </c>
       <c r="V9" s="89" t="s">
@@ -27363,14 +27363,14 @@
       <c r="AC9" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="AD9" s="199"/>
+      <c r="AD9" s="223"/>
       <c r="AF9" s="103" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="200"/>
-      <c r="C10" s="202"/>
+      <c r="B10" s="210"/>
+      <c r="C10" s="213"/>
       <c r="D10" s="142"/>
       <c r="E10" s="143"/>
       <c r="F10" s="144"/>
@@ -27385,8 +27385,8 @@
       <c r="O10" s="145"/>
       <c r="P10" s="144"/>
       <c r="Q10" s="145"/>
-      <c r="T10" s="190"/>
-      <c r="U10" s="192"/>
+      <c r="T10" s="224"/>
+      <c r="U10" s="220"/>
       <c r="V10" s="89" t="s">
         <v>158</v>
       </c>
@@ -27411,12 +27411,12 @@
       <c r="AC10" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="AD10" s="199"/>
+      <c r="AD10" s="223"/>
       <c r="AF10" s="103"/>
     </row>
     <row r="11" spans="2:32" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="200"/>
-      <c r="C11" s="208"/>
+      <c r="B11" s="210"/>
+      <c r="C11" s="212"/>
       <c r="D11" s="45" t="s">
         <v>1</v>
       </c>
@@ -27459,10 +27459,10 @@
       <c r="Q11" s="85">
         <v>7.4710159563724545</v>
       </c>
-      <c r="T11" s="189" t="s">
+      <c r="T11" s="211" t="s">
         <v>79</v>
       </c>
-      <c r="U11" s="191" t="s">
+      <c r="U11" s="215" t="s">
         <v>165</v>
       </c>
       <c r="V11" s="89" t="s">
@@ -27489,13 +27489,13 @@
       <c r="AC11" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="AD11" s="199"/>
+      <c r="AD11" s="223"/>
       <c r="AF11" s="103" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:32" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="200"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="142"/>
       <c r="D12" s="142"/>
       <c r="E12" s="143"/>
@@ -27511,8 +27511,8 @@
       <c r="O12" s="145"/>
       <c r="P12" s="144"/>
       <c r="Q12" s="145"/>
-      <c r="T12" s="190"/>
-      <c r="U12" s="192"/>
+      <c r="T12" s="224"/>
+      <c r="U12" s="220"/>
       <c r="V12" s="89" t="s">
         <v>158</v>
       </c>
@@ -27537,12 +27537,12 @@
       <c r="AC12" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="AD12" s="199"/>
+      <c r="AD12" s="223"/>
       <c r="AF12" s="103"/>
     </row>
     <row r="13" spans="2:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="200"/>
-      <c r="C13" s="207" t="s">
+      <c r="B13" s="210"/>
+      <c r="C13" s="209" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="44" t="s">
@@ -27587,10 +27587,10 @@
       <c r="Q13" s="82">
         <v>8.8215291860230423</v>
       </c>
-      <c r="T13" s="189" t="s">
+      <c r="T13" s="211" t="s">
         <v>79</v>
       </c>
-      <c r="U13" s="191" t="s">
+      <c r="U13" s="215" t="s">
         <v>166</v>
       </c>
       <c r="V13" s="89" t="s">
@@ -27617,14 +27617,14 @@
       <c r="AC13" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="AD13" s="199"/>
+      <c r="AD13" s="223"/>
       <c r="AF13" s="103" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:32" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="200"/>
-      <c r="C14" s="202"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="213"/>
       <c r="D14" s="142"/>
       <c r="E14" s="143"/>
       <c r="F14" s="144"/>
@@ -27639,8 +27639,8 @@
       <c r="O14" s="145"/>
       <c r="P14" s="144"/>
       <c r="Q14" s="145"/>
-      <c r="T14" s="193"/>
-      <c r="U14" s="194"/>
+      <c r="T14" s="226"/>
+      <c r="U14" s="227"/>
       <c r="V14" s="149" t="s">
         <v>158</v>
       </c>
@@ -27665,12 +27665,12 @@
       <c r="AC14" s="155" t="s">
         <v>170</v>
       </c>
-      <c r="AD14" s="199"/>
+      <c r="AD14" s="223"/>
       <c r="AF14" s="103"/>
     </row>
     <row r="15" spans="2:32" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="200"/>
-      <c r="C15" s="208"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="212"/>
       <c r="D15" s="45" t="s">
         <v>1</v>
       </c>
@@ -27713,10 +27713,10 @@
       <c r="Q15" s="85">
         <v>7.4277923651787603</v>
       </c>
-      <c r="T15" s="204" t="s">
+      <c r="T15" s="217" t="s">
         <v>111</v>
       </c>
-      <c r="U15" s="203" t="s">
+      <c r="U15" s="219" t="s">
         <v>164</v>
       </c>
       <c r="V15" s="134" t="s">
@@ -27743,13 +27743,13 @@
       <c r="AC15" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="AD15" s="199"/>
+      <c r="AD15" s="223"/>
       <c r="AF15" s="103" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:32" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="200"/>
+      <c r="B16" s="210"/>
       <c r="C16" s="142"/>
       <c r="D16" s="142"/>
       <c r="E16" s="143"/>
@@ -27765,8 +27765,8 @@
       <c r="O16" s="145"/>
       <c r="P16" s="144"/>
       <c r="Q16" s="145"/>
-      <c r="T16" s="196"/>
-      <c r="U16" s="192"/>
+      <c r="T16" s="218"/>
+      <c r="U16" s="220"/>
       <c r="V16" s="89" t="s">
         <v>158</v>
       </c>
@@ -27795,8 +27795,8 @@
       <c r="AF16" s="103"/>
     </row>
     <row r="17" spans="2:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="200"/>
-      <c r="C17" s="207" t="s">
+      <c r="B17" s="210"/>
+      <c r="C17" s="209" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="44" t="s">
@@ -27841,10 +27841,10 @@
       <c r="Q17" s="82">
         <v>8.6808986628963822</v>
       </c>
-      <c r="T17" s="195" t="s">
+      <c r="T17" s="221" t="s">
         <v>111</v>
       </c>
-      <c r="U17" s="191" t="s">
+      <c r="U17" s="215" t="s">
         <v>163</v>
       </c>
       <c r="V17" s="89" t="s">
@@ -27877,8 +27877,8 @@
       </c>
     </row>
     <row r="18" spans="2:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="189"/>
-      <c r="C18" s="202"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="213"/>
       <c r="D18" s="142"/>
       <c r="E18" s="143"/>
       <c r="F18" s="144"/>
@@ -27893,8 +27893,8 @@
       <c r="O18" s="145"/>
       <c r="P18" s="144"/>
       <c r="Q18" s="145"/>
-      <c r="T18" s="196"/>
-      <c r="U18" s="192"/>
+      <c r="T18" s="218"/>
+      <c r="U18" s="220"/>
       <c r="V18" s="89" t="s">
         <v>158</v>
       </c>
@@ -27923,8 +27923,8 @@
       <c r="AF18" s="103"/>
     </row>
     <row r="19" spans="2:32" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="208"/>
-      <c r="C19" s="208"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="212"/>
       <c r="D19" s="45" t="s">
         <v>1</v>
       </c>
@@ -27967,10 +27967,10 @@
       <c r="Q19" s="85">
         <v>6.1950111088669075</v>
       </c>
-      <c r="T19" s="195" t="s">
+      <c r="T19" s="221" t="s">
         <v>111</v>
       </c>
-      <c r="U19" s="191" t="s">
+      <c r="U19" s="215" t="s">
         <v>165</v>
       </c>
       <c r="V19" s="89" t="s">
@@ -28019,8 +28019,8 @@
       <c r="O20" s="158"/>
       <c r="P20" s="157"/>
       <c r="Q20" s="88"/>
-      <c r="T20" s="196"/>
-      <c r="U20" s="192"/>
+      <c r="T20" s="218"/>
+      <c r="U20" s="220"/>
       <c r="V20" s="89" t="s">
         <v>158</v>
       </c>
@@ -28065,10 +28065,10 @@
       <c r="O21" s="88"/>
       <c r="P21" s="87"/>
       <c r="Q21" s="88"/>
-      <c r="T21" s="195" t="s">
+      <c r="T21" s="221" t="s">
         <v>111</v>
       </c>
-      <c r="U21" s="191" t="s">
+      <c r="U21" s="215" t="s">
         <v>166</v>
       </c>
       <c r="V21" s="89" t="s">
@@ -28117,8 +28117,8 @@
       <c r="O22" s="88"/>
       <c r="P22" s="87"/>
       <c r="Q22" s="88"/>
-      <c r="T22" s="197"/>
-      <c r="U22" s="194"/>
+      <c r="T22" s="228"/>
+      <c r="U22" s="227"/>
       <c r="V22" s="149" t="s">
         <v>158</v>
       </c>
@@ -28147,16 +28147,16 @@
       <c r="AF22" s="103"/>
     </row>
     <row r="23" spans="2:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="201" t="s">
+      <c r="B23" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="201" t="s">
+      <c r="C23" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="201" t="s">
+      <c r="D23" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="209" t="s">
+      <c r="E23" s="207" t="s">
         <v>68</v>
       </c>
       <c r="F23" s="205" t="s">
@@ -28189,10 +28189,10 @@
       </c>
     </row>
     <row r="24" spans="2:32" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="208"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="210"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="208"/>
       <c r="F24" s="78" t="s">
         <v>87</v>
       </c>
@@ -28229,22 +28229,22 @@
       <c r="Q24" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="W24" s="244" t="s">
+      <c r="W24" s="176" t="s">
         <v>172</v>
       </c>
-      <c r="X24" s="244"/>
-      <c r="Y24" s="244"/>
-      <c r="Z24" s="244"/>
+      <c r="X24" s="176"/>
+      <c r="Y24" s="176"/>
+      <c r="Z24" s="176"/>
       <c r="AD24" s="147"/>
       <c r="AF24" s="103" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="207">
+      <c r="B25" s="209">
         <v>120</v>
       </c>
-      <c r="C25" s="207" t="s">
+      <c r="C25" s="209" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="44" t="s">
@@ -28289,19 +28289,19 @@
       <c r="Q25" s="82">
         <v>11.750439789941439</v>
       </c>
-      <c r="W25" s="244" t="s">
+      <c r="W25" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="X25" s="244"/>
-      <c r="Y25" s="244"/>
-      <c r="Z25" s="244"/>
+      <c r="X25" s="176"/>
+      <c r="Y25" s="176"/>
+      <c r="Z25" s="176"/>
       <c r="AF25" s="103" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="200"/>
-      <c r="C26" s="208"/>
+      <c r="B26" s="210"/>
+      <c r="C26" s="212"/>
       <c r="D26" s="45" t="s">
         <v>1</v>
       </c>
@@ -28354,8 +28354,8 @@
       </c>
     </row>
     <row r="27" spans="2:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="200"/>
-      <c r="C27" s="207" t="s">
+      <c r="B27" s="210"/>
+      <c r="C27" s="209" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -28414,8 +28414,8 @@
       </c>
     </row>
     <row r="28" spans="2:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
-      <c r="C28" s="208"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="212"/>
       <c r="D28" s="45" t="s">
         <v>1</v>
       </c>
@@ -28472,8 +28472,8 @@
       </c>
     </row>
     <row r="29" spans="2:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="200"/>
-      <c r="C29" s="207" t="s">
+      <c r="B29" s="210"/>
+      <c r="C29" s="209" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="44" t="s">
@@ -28528,8 +28528,8 @@
       <c r="AA29" s="105"/>
     </row>
     <row r="30" spans="2:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="200"/>
-      <c r="C30" s="208"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="212"/>
       <c r="D30" s="45" t="s">
         <v>1</v>
       </c>
@@ -28582,8 +28582,8 @@
       <c r="AA30" s="105"/>
     </row>
     <row r="31" spans="2:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="200"/>
-      <c r="C31" s="207" t="s">
+      <c r="B31" s="210"/>
+      <c r="C31" s="209" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="44" t="s">
@@ -28632,8 +28632,8 @@
       <c r="AA31" s="105"/>
     </row>
     <row r="32" spans="2:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="200"/>
-      <c r="C32" s="208"/>
+      <c r="B32" s="210"/>
+      <c r="C32" s="212"/>
       <c r="D32" s="45" t="s">
         <v>1</v>
       </c>
@@ -28683,8 +28683,8 @@
       <c r="AE32" s="156"/>
     </row>
     <row r="33" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="200"/>
-      <c r="C33" s="207" t="s">
+      <c r="B33" s="210"/>
+      <c r="C33" s="209" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="44" t="s">
@@ -28729,14 +28729,14 @@
       <c r="Q33" s="82">
         <v>7.5367932134922313</v>
       </c>
-      <c r="U33" s="183" t="s">
+      <c r="U33" s="232" t="s">
         <v>147</v>
       </c>
-      <c r="V33" s="184"/>
-      <c r="W33" s="181" t="s">
+      <c r="V33" s="233"/>
+      <c r="W33" s="230" t="s">
         <v>111</v>
       </c>
-      <c r="X33" s="182"/>
+      <c r="X33" s="231"/>
       <c r="Y33" s="128" t="s">
         <v>150</v>
       </c>
@@ -28749,8 +28749,8 @@
       <c r="AE33" s="156"/>
     </row>
     <row r="34" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="208"/>
-      <c r="C34" s="208"/>
+      <c r="B34" s="212"/>
+      <c r="C34" s="212"/>
       <c r="D34" s="45" t="s">
         <v>1</v>
       </c>
@@ -28793,14 +28793,14 @@
       <c r="Q34" s="85">
         <v>4.1809633407392681</v>
       </c>
-      <c r="U34" s="183" t="s">
+      <c r="U34" s="232" t="s">
         <v>148</v>
       </c>
-      <c r="V34" s="184"/>
-      <c r="W34" s="181" t="s">
+      <c r="V34" s="233"/>
+      <c r="W34" s="230" t="s">
         <v>167</v>
       </c>
-      <c r="X34" s="182"/>
+      <c r="X34" s="231"/>
       <c r="Y34" s="128" t="s">
         <v>169</v>
       </c>
@@ -28829,14 +28829,14 @@
       <c r="O35" s="88"/>
       <c r="P35" s="87"/>
       <c r="Q35" s="88"/>
-      <c r="U35" s="183" t="s">
+      <c r="U35" s="232" t="s">
         <v>149</v>
       </c>
-      <c r="V35" s="184"/>
-      <c r="W35" s="181" t="s">
+      <c r="V35" s="233"/>
+      <c r="W35" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="X35" s="182"/>
+      <c r="X35" s="231"/>
       <c r="Y35" s="128" t="s">
         <v>168</v>
       </c>
@@ -28846,16 +28846,16 @@
       <c r="AA35" s="105"/>
     </row>
     <row r="36" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="201" t="s">
+      <c r="B36" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="201" t="s">
+      <c r="C36" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="201" t="s">
+      <c r="D36" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="209" t="s">
+      <c r="E36" s="207" t="s">
         <v>68</v>
       </c>
       <c r="F36" s="205" t="s">
@@ -28882,13 +28882,13 @@
         <v>73</v>
       </c>
       <c r="Q36" s="206"/>
-      <c r="U36" s="180" t="s">
+      <c r="U36" s="229" t="s">
         <v>174</v>
       </c>
-      <c r="V36" s="180"/>
-      <c r="W36" s="180"/>
-      <c r="X36" s="180"/>
-      <c r="Y36" s="180"/>
+      <c r="V36" s="229"/>
+      <c r="W36" s="229"/>
+      <c r="X36" s="229"/>
+      <c r="Y36" s="229"/>
       <c r="Z36" s="161">
         <f>(Z33-Z35*Z34)/(SQRT((1-Z35^2)*(1-Z34^2)))</f>
         <v>0.87733595130890851</v>
@@ -28896,10 +28896,10 @@
       <c r="AA36" s="105"/>
     </row>
     <row r="37" spans="2:31" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="208"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="191"/>
-      <c r="E37" s="210"/>
+      <c r="B37" s="212"/>
+      <c r="C37" s="215"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="208"/>
       <c r="F37" s="78" t="s">
         <v>87</v>
       </c>
@@ -28942,10 +28942,10 @@
       <c r="AA37" s="105"/>
     </row>
     <row r="38" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="207">
+      <c r="B38" s="209">
         <v>180</v>
       </c>
-      <c r="C38" s="207" t="s">
+      <c r="C38" s="209" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="44" t="s">
@@ -28997,8 +28997,8 @@
       <c r="AA38" s="105"/>
     </row>
     <row r="39" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="200"/>
-      <c r="C39" s="208"/>
+      <c r="B39" s="210"/>
+      <c r="C39" s="212"/>
       <c r="D39" s="45" t="s">
         <v>1</v>
       </c>
@@ -29048,8 +29048,8 @@
       <c r="AA39" s="105"/>
     </row>
     <row r="40" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="200"/>
-      <c r="C40" s="207" t="s">
+      <c r="B40" s="210"/>
+      <c r="C40" s="209" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="44" t="s">
@@ -29101,8 +29101,8 @@
       <c r="AA40" s="105"/>
     </row>
     <row r="41" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="200"/>
-      <c r="C41" s="208"/>
+      <c r="B41" s="210"/>
+      <c r="C41" s="212"/>
       <c r="D41" s="45" t="s">
         <v>1</v>
       </c>
@@ -29152,8 +29152,8 @@
       <c r="AA41" s="105"/>
     </row>
     <row r="42" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="200"/>
-      <c r="C42" s="207" t="s">
+      <c r="B42" s="210"/>
+      <c r="C42" s="209" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="44" t="s">
@@ -29200,8 +29200,8 @@
       </c>
     </row>
     <row r="43" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="200"/>
-      <c r="C43" s="208"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="212"/>
       <c r="D43" s="45" t="s">
         <v>1</v>
       </c>
@@ -29246,8 +29246,8 @@
       </c>
     </row>
     <row r="44" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="200"/>
-      <c r="C44" s="207" t="s">
+      <c r="B44" s="210"/>
+      <c r="C44" s="209" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="44" t="s">
@@ -29294,8 +29294,8 @@
       </c>
     </row>
     <row r="45" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="200"/>
-      <c r="C45" s="208"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="212"/>
       <c r="D45" s="45" t="s">
         <v>1</v>
       </c>
@@ -29340,8 +29340,8 @@
       </c>
     </row>
     <row r="46" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="200"/>
-      <c r="C46" s="207" t="s">
+      <c r="B46" s="210"/>
+      <c r="C46" s="209" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="44" t="s">
@@ -29388,8 +29388,8 @@
       </c>
     </row>
     <row r="47" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="208"/>
-      <c r="C47" s="208"/>
+      <c r="B47" s="212"/>
+      <c r="C47" s="212"/>
       <c r="D47" s="45" t="s">
         <v>1</v>
       </c>
@@ -29435,58 +29435,58 @@
     </row>
     <row r="48" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF66" s="216" t="s">
+      <c r="AF66" s="199" t="s">
         <v>92</v>
       </c>
-      <c r="AG66" s="217"/>
-      <c r="AH66" s="217"/>
-      <c r="AI66" s="218"/>
-      <c r="AK66" s="216" t="s">
+      <c r="AG66" s="200"/>
+      <c r="AH66" s="200"/>
+      <c r="AI66" s="201"/>
+      <c r="AK66" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="AL66" s="217"/>
-      <c r="AM66" s="217"/>
-      <c r="AN66" s="218"/>
+      <c r="AL66" s="200"/>
+      <c r="AM66" s="200"/>
+      <c r="AN66" s="201"/>
     </row>
     <row r="67" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF67" s="216" t="s">
+      <c r="AF67" s="199" t="s">
         <v>90</v>
       </c>
-      <c r="AG67" s="217"/>
-      <c r="AH67" s="217"/>
-      <c r="AI67" s="218"/>
-      <c r="AK67" s="216" t="s">
+      <c r="AG67" s="200"/>
+      <c r="AH67" s="200"/>
+      <c r="AI67" s="201"/>
+      <c r="AK67" s="199" t="s">
         <v>91</v>
       </c>
-      <c r="AL67" s="217"/>
-      <c r="AM67" s="217"/>
-      <c r="AN67" s="218"/>
+      <c r="AL67" s="200"/>
+      <c r="AM67" s="200"/>
+      <c r="AN67" s="201"/>
     </row>
     <row r="68" spans="32:40" x14ac:dyDescent="0.2">
       <c r="AF68" s="91"/>
       <c r="AG68" s="91"/>
-      <c r="AH68" s="211"/>
-      <c r="AI68" s="211"/>
+      <c r="AH68" s="202"/>
+      <c r="AI68" s="202"/>
       <c r="AK68" s="91"/>
       <c r="AL68" s="91"/>
-      <c r="AM68" s="211"/>
-      <c r="AN68" s="211"/>
+      <c r="AM68" s="202"/>
+      <c r="AN68" s="202"/>
     </row>
     <row r="69" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF69" s="214" t="s">
+      <c r="AF69" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="AG69" s="215"/>
+      <c r="AG69" s="198"/>
       <c r="AH69" s="47">
         <v>120</v>
       </c>
       <c r="AI69" s="47">
         <v>180</v>
       </c>
-      <c r="AK69" s="214" t="s">
+      <c r="AK69" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="AL69" s="215"/>
+      <c r="AL69" s="198"/>
       <c r="AM69" s="47">
         <v>120</v>
       </c>
@@ -29495,20 +29495,20 @@
       </c>
     </row>
     <row r="70" spans="32:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="AF70" s="186" t="s">
+      <c r="AF70" s="203" t="s">
         <v>37</v>
       </c>
-      <c r="AG70" s="188"/>
+      <c r="AG70" s="204"/>
       <c r="AH70" s="48" t="s">
         <v>80</v>
       </c>
       <c r="AI70" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AK70" s="186" t="s">
+      <c r="AK70" s="203" t="s">
         <v>37</v>
       </c>
-      <c r="AL70" s="188"/>
+      <c r="AL70" s="204"/>
       <c r="AM70" s="48" t="s">
         <v>80</v>
       </c>
@@ -29517,7 +29517,7 @@
       </c>
     </row>
     <row r="71" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF71" s="212" t="s">
+      <c r="AF71" s="195" t="s">
         <v>2</v>
       </c>
       <c r="AG71" s="43" t="s">
@@ -29531,7 +29531,7 @@
         <f>((G38*100/G4)-100)</f>
         <v>-31.616378142834606</v>
       </c>
-      <c r="AK71" s="212" t="s">
+      <c r="AK71" s="195" t="s">
         <v>2</v>
       </c>
       <c r="AL71" s="43" t="s">
@@ -29547,7 +29547,7 @@
       </c>
     </row>
     <row r="72" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF72" s="213"/>
+      <c r="AF72" s="196"/>
       <c r="AG72" s="43" t="s">
         <v>1</v>
       </c>
@@ -29559,7 +29559,7 @@
         <f>((G39*100/G5)-100)</f>
         <v>-29.68583415644278</v>
       </c>
-      <c r="AK72" s="213"/>
+      <c r="AK72" s="196"/>
       <c r="AL72" s="43" t="s">
         <v>1</v>
       </c>
@@ -29573,7 +29573,7 @@
       </c>
     </row>
     <row r="73" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF73" s="212" t="s">
+      <c r="AF73" s="195" t="s">
         <v>3</v>
       </c>
       <c r="AG73" s="43" t="s">
@@ -29587,7 +29587,7 @@
         <f>((G40*100/G6)-100)</f>
         <v>-22.8055609830229</v>
       </c>
-      <c r="AK73" s="212" t="s">
+      <c r="AK73" s="195" t="s">
         <v>3</v>
       </c>
       <c r="AL73" s="43" t="s">
@@ -29603,7 +29603,7 @@
       </c>
     </row>
     <row r="74" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF74" s="213"/>
+      <c r="AF74" s="196"/>
       <c r="AG74" s="43" t="s">
         <v>1</v>
       </c>
@@ -29615,7 +29615,7 @@
         <f>((G41*100/G7)-100)</f>
         <v>-43.800253941358989</v>
       </c>
-      <c r="AK74" s="213"/>
+      <c r="AK74" s="196"/>
       <c r="AL74" s="43" t="s">
         <v>1</v>
       </c>
@@ -29629,7 +29629,7 @@
       </c>
     </row>
     <row r="75" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF75" s="212" t="s">
+      <c r="AF75" s="195" t="s">
         <v>4</v>
       </c>
       <c r="AG75" s="43" t="s">
@@ -29643,7 +29643,7 @@
         <f>((G42*100/G9)-100)</f>
         <v>-33.468833140098369</v>
       </c>
-      <c r="AK75" s="212" t="s">
+      <c r="AK75" s="195" t="s">
         <v>4</v>
       </c>
       <c r="AL75" s="43" t="s">
@@ -29659,7 +29659,7 @@
       </c>
     </row>
     <row r="76" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF76" s="213"/>
+      <c r="AF76" s="196"/>
       <c r="AG76" s="43" t="s">
         <v>1</v>
       </c>
@@ -29671,7 +29671,7 @@
         <f>((G43*100/G11)-100)</f>
         <v>-49.49262644308935</v>
       </c>
-      <c r="AK76" s="213"/>
+      <c r="AK76" s="196"/>
       <c r="AL76" s="43" t="s">
         <v>1</v>
       </c>
@@ -29685,7 +29685,7 @@
       </c>
     </row>
     <row r="77" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF77" s="212" t="s">
+      <c r="AF77" s="195" t="s">
         <v>5</v>
       </c>
       <c r="AG77" s="43" t="s">
@@ -29699,7 +29699,7 @@
         <f>((G44*100/G13)-100)</f>
         <v>-32.61294418421096</v>
       </c>
-      <c r="AK77" s="212" t="s">
+      <c r="AK77" s="195" t="s">
         <v>5</v>
       </c>
       <c r="AL77" s="43" t="s">
@@ -29715,7 +29715,7 @@
       </c>
     </row>
     <row r="78" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF78" s="213"/>
+      <c r="AF78" s="196"/>
       <c r="AG78" s="43" t="s">
         <v>1</v>
       </c>
@@ -29727,7 +29727,7 @@
         <f>((G45*100/G15)-100)</f>
         <v>-58.510098132688334</v>
       </c>
-      <c r="AK78" s="213"/>
+      <c r="AK78" s="196"/>
       <c r="AL78" s="43" t="s">
         <v>1</v>
       </c>
@@ -29741,7 +29741,7 @@
       </c>
     </row>
     <row r="79" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF79" s="212" t="s">
+      <c r="AF79" s="195" t="s">
         <v>12</v>
       </c>
       <c r="AG79" s="43" t="s">
@@ -29755,7 +29755,7 @@
         <f>((G46*100/G17)-100)</f>
         <v>-41.478461929237419</v>
       </c>
-      <c r="AK79" s="212" t="s">
+      <c r="AK79" s="195" t="s">
         <v>12</v>
       </c>
       <c r="AL79" s="43" t="s">
@@ -29771,7 +29771,7 @@
       </c>
     </row>
     <row r="80" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF80" s="213"/>
+      <c r="AF80" s="196"/>
       <c r="AG80" s="43" t="s">
         <v>1</v>
       </c>
@@ -29783,7 +29783,7 @@
         <f>((G47*100/G19)-100)</f>
         <v>-61.819740426117349</v>
       </c>
-      <c r="AK80" s="213"/>
+      <c r="AK80" s="196"/>
       <c r="AL80" s="43" t="s">
         <v>1</v>
       </c>
@@ -29797,20 +29797,20 @@
       </c>
     </row>
     <row r="81" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF81" s="214" t="s">
+      <c r="AF81" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="AG81" s="215"/>
+      <c r="AG81" s="198"/>
       <c r="AH81" s="50" t="s">
         <v>88</v>
       </c>
       <c r="AI81" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="AK81" s="214" t="s">
+      <c r="AK81" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="AL81" s="215"/>
+      <c r="AL81" s="198"/>
       <c r="AM81" s="50" t="s">
         <v>88</v>
       </c>
@@ -29819,10 +29819,10 @@
       </c>
     </row>
     <row r="217" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T217" s="200" t="s">
+      <c r="T217" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="U217" s="201" t="s">
+      <c r="U217" s="214" t="s">
         <v>145</v>
       </c>
       <c r="V217" s="89" t="s">
@@ -29851,8 +29851,8 @@
       </c>
     </row>
     <row r="218" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T218" s="200"/>
-      <c r="U218" s="201"/>
+      <c r="T218" s="210"/>
+      <c r="U218" s="214"/>
       <c r="V218" s="89" t="s">
         <v>158</v>
       </c>
@@ -29889,10 +29889,10 @@
       <c r="AC219" s="152"/>
     </row>
     <row r="220" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T220" s="200" t="s">
+      <c r="T220" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="U220" s="200" t="s">
+      <c r="U220" s="210" t="s">
         <v>76</v>
       </c>
       <c r="V220" s="89" t="s">
@@ -29921,8 +29921,8 @@
       </c>
     </row>
     <row r="221" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T221" s="200"/>
-      <c r="U221" s="200"/>
+      <c r="T221" s="210"/>
+      <c r="U221" s="210"/>
       <c r="V221" s="89" t="s">
         <v>158</v>
       </c>
@@ -29947,10 +29947,10 @@
       <c r="AC221" s="131"/>
     </row>
     <row r="222" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T222" s="200" t="s">
+      <c r="T222" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="U222" s="200" t="s">
+      <c r="U222" s="210" t="s">
         <v>77</v>
       </c>
       <c r="V222" s="89" t="s">
@@ -29979,8 +29979,8 @@
       </c>
     </row>
     <row r="223" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T223" s="200"/>
-      <c r="U223" s="200"/>
+      <c r="T223" s="210"/>
+      <c r="U223" s="210"/>
       <c r="V223" s="89" t="s">
         <v>158</v>
       </c>
@@ -30017,10 +30017,10 @@
       <c r="AC224" s="152"/>
     </row>
     <row r="225" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T225" s="185" t="s">
+      <c r="T225" s="216" t="s">
         <v>111</v>
       </c>
-      <c r="U225" s="185" t="s">
+      <c r="U225" s="216" t="s">
         <v>76</v>
       </c>
       <c r="V225" s="89" t="s">
@@ -30049,8 +30049,8 @@
       </c>
     </row>
     <row r="226" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T226" s="185"/>
-      <c r="U226" s="185"/>
+      <c r="T226" s="216"/>
+      <c r="U226" s="216"/>
       <c r="V226" s="89" t="s">
         <v>158</v>
       </c>
@@ -30075,10 +30075,10 @@
       <c r="AC226" s="131"/>
     </row>
     <row r="227" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T227" s="185" t="s">
+      <c r="T227" s="216" t="s">
         <v>111</v>
       </c>
-      <c r="U227" s="185" t="s">
+      <c r="U227" s="216" t="s">
         <v>77</v>
       </c>
       <c r="V227" s="89" t="s">
@@ -30107,8 +30107,8 @@
       </c>
     </row>
     <row r="228" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T228" s="185"/>
-      <c r="U228" s="185"/>
+      <c r="T228" s="216"/>
+      <c r="U228" s="216"/>
       <c r="V228" s="89" t="s">
         <v>158</v>
       </c>
@@ -30145,10 +30145,10 @@
       <c r="AC229" s="152"/>
     </row>
     <row r="230" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T230" s="185" t="s">
+      <c r="T230" s="216" t="s">
         <v>111</v>
       </c>
-      <c r="U230" s="201" t="s">
+      <c r="U230" s="214" t="s">
         <v>145</v>
       </c>
       <c r="V230" s="89" t="s">
@@ -30177,8 +30177,8 @@
       </c>
     </row>
     <row r="231" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T231" s="185"/>
-      <c r="U231" s="201"/>
+      <c r="T231" s="216"/>
+      <c r="U231" s="214"/>
       <c r="V231" s="89" t="s">
         <v>158</v>
       </c>
@@ -30204,6 +30204,92 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="V5:AC5"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="AD7:AD15"/>
+    <mergeCell ref="T217:T218"/>
+    <mergeCell ref="U217:U218"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T220:T221"/>
+    <mergeCell ref="T222:T223"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U220:U221"/>
+    <mergeCell ref="U222:U223"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="T230:T231"/>
+    <mergeCell ref="U230:U231"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="T225:T226"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="U225:U226"/>
+    <mergeCell ref="T227:T228"/>
+    <mergeCell ref="U227:U228"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:B19"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L23:M23"/>
     <mergeCell ref="AF71:AF72"/>
     <mergeCell ref="AF73:AF74"/>
     <mergeCell ref="AF75:AF76"/>
@@ -30226,92 +30312,6 @@
     <mergeCell ref="AF69:AG69"/>
     <mergeCell ref="AF81:AG81"/>
     <mergeCell ref="AH68:AI68"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:B19"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="T230:T231"/>
-    <mergeCell ref="U230:U231"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="T225:T226"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="AD7:AD15"/>
-    <mergeCell ref="T217:T218"/>
-    <mergeCell ref="U217:U218"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T220:T221"/>
-    <mergeCell ref="T222:T223"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U220:U221"/>
-    <mergeCell ref="U222:U223"/>
-    <mergeCell ref="V5:AC5"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U225:U226"/>
-    <mergeCell ref="T227:T228"/>
-    <mergeCell ref="U227:U228"/>
   </mergeCells>
   <conditionalFormatting sqref="W7:AB7 W9:AB9 W11:AB11 W13:AB13 W15:AB15 W17:AB17 W19:AB19 W21:AB21">
     <cfRule type="colorScale" priority="1">
@@ -31611,10 +31611,10 @@
       <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="219" t="s">
+      <c r="C33" s="234" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="220"/>
+      <c r="D33" s="235"/>
       <c r="G33" s="123">
         <f>SQRT(G32)</f>
         <v>47.196398167656817</v>
@@ -31657,10 +31657,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E42" s="221" t="s">
+      <c r="E42" s="236" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="221"/>
+      <c r="F42" s="236"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" s="118" t="s">

--- a/03_thesis/Auswertung.xlsx
+++ b/03_thesis/Auswertung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CDFD15-6713-184A-A4E0-48A2A8505079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E241B50-1AE8-E54C-8400-3FB06D75D34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28980" yWindow="500" windowWidth="39820" windowHeight="28300" activeTab="7" xr2:uid="{5437B52F-85AC-DC42-B195-13DB204C42BF}"/>
   </bookViews>
@@ -2003,15 +2003,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2033,6 +2024,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2042,6 +2036,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2050,6 +2050,99 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2075,99 +2168,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2177,20 +2177,20 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -14623,19 +14623,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="209" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="225" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="196" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="204"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="197"/>
     </row>
     <row r="3" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="148" t="s">
@@ -14667,10 +14667,10 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="238" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="164" t="s">
@@ -14699,8 +14699,8 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="213"/>
-      <c r="C5" s="219"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="212"/>
       <c r="D5" s="102" t="s">
         <v>178</v>
       </c>
@@ -14727,8 +14727,8 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="213"/>
-      <c r="C6" s="239" t="s">
+      <c r="B6" s="211"/>
+      <c r="C6" s="238" t="s">
         <v>183</v>
       </c>
       <c r="D6" s="164" t="s">
@@ -14757,8 +14757,8 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="226"/>
-      <c r="C7" s="227"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="203"/>
       <c r="D7" s="149" t="s">
         <v>177</v>
       </c>
@@ -14789,7 +14789,7 @@
       <c r="B8" s="240" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="239" t="s">
+      <c r="C8" s="238" t="s">
         <v>75</v>
       </c>
       <c r="D8" s="164" t="s">
@@ -14818,8 +14818,8 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="217"/>
-      <c r="C9" s="219"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="212"/>
       <c r="D9" s="102" t="s">
         <v>181</v>
       </c>
@@ -14846,8 +14846,8 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="217"/>
-      <c r="C10" s="239" t="s">
+      <c r="B10" s="219"/>
+      <c r="C10" s="238" t="s">
         <v>183</v>
       </c>
       <c r="D10" s="164" t="s">
@@ -14876,8 +14876,8 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="228"/>
-      <c r="C11" s="227"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="203"/>
       <c r="D11" s="149" t="s">
         <v>182</v>
       </c>
@@ -14910,16 +14910,16 @@
       </c>
     </row>
     <row r="20" spans="13:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M20" s="237" t="s">
+      <c r="M20" s="241" t="s">
         <v>193</v>
       </c>
-      <c r="N20" s="238" t="s">
+      <c r="N20" s="239" t="s">
         <v>192</v>
       </c>
-      <c r="O20" s="238"/>
+      <c r="O20" s="239"/>
     </row>
     <row r="21" spans="13:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="M21" s="237"/>
+      <c r="M21" s="241"/>
       <c r="N21" s="177" t="s">
         <v>8</v>
       </c>
@@ -14931,7 +14931,7 @@
       <c r="M22" s="178">
         <v>1</v>
       </c>
-      <c r="N22" s="238" t="s">
+      <c r="N22" s="239" t="s">
         <v>2</v>
       </c>
       <c r="O22" s="178" t="s">
@@ -14942,7 +14942,7 @@
       <c r="M23" s="178">
         <v>2</v>
       </c>
-      <c r="N23" s="238"/>
+      <c r="N23" s="239"/>
       <c r="O23" s="178" t="s">
         <v>1</v>
       </c>
@@ -14951,7 +14951,7 @@
       <c r="M24" s="178">
         <v>3</v>
       </c>
-      <c r="N24" s="238" t="s">
+      <c r="N24" s="239" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="178" t="s">
@@ -14962,7 +14962,7 @@
       <c r="M25" s="178">
         <v>4</v>
       </c>
-      <c r="N25" s="238"/>
+      <c r="N25" s="239"/>
       <c r="O25" s="178" t="s">
         <v>1</v>
       </c>
@@ -14971,7 +14971,7 @@
       <c r="M26" s="178">
         <v>5</v>
       </c>
-      <c r="N26" s="238" t="s">
+      <c r="N26" s="239" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="178" t="s">
@@ -14982,7 +14982,7 @@
       <c r="M27" s="178">
         <v>6</v>
       </c>
-      <c r="N27" s="238"/>
+      <c r="N27" s="239"/>
       <c r="O27" s="178" t="s">
         <v>1</v>
       </c>
@@ -14991,7 +14991,7 @@
       <c r="M28" s="178">
         <v>7</v>
       </c>
-      <c r="N28" s="238" t="s">
+      <c r="N28" s="239" t="s">
         <v>5</v>
       </c>
       <c r="O28" s="178" t="s">
@@ -15002,7 +15002,7 @@
       <c r="M29" s="178">
         <v>8</v>
       </c>
-      <c r="N29" s="238"/>
+      <c r="N29" s="239"/>
       <c r="O29" s="178" t="s">
         <v>1</v>
       </c>
@@ -15011,7 +15011,7 @@
       <c r="M30" s="178">
         <v>9</v>
       </c>
-      <c r="N30" s="238" t="s">
+      <c r="N30" s="239" t="s">
         <v>12</v>
       </c>
       <c r="O30" s="178" t="s">
@@ -15022,18 +15022,13 @@
       <c r="M31" s="178">
         <v>10</v>
       </c>
-      <c r="N31" s="238"/>
+      <c r="N31" s="239"/>
       <c r="O31" s="178" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="B2:D2"/>
     <mergeCell ref="N30:N31"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="C10:C11"/>
@@ -15044,6 +15039,11 @@
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="N28:N29"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J11">
     <cfRule type="colorScale" priority="1">
@@ -15814,51 +15814,51 @@
   <sheetData>
     <row r="1" spans="2:24" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="E2" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="188" t="s">
+      <c r="F2" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180" t="s">
+      <c r="G2" s="186"/>
+      <c r="H2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180" t="s">
+      <c r="K2" s="186"/>
+      <c r="L2" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180" t="s">
+      <c r="M2" s="186"/>
+      <c r="N2" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="189"/>
-      <c r="P2" s="187" t="s">
+      <c r="O2" s="187"/>
+      <c r="P2" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="182" t="s">
+      <c r="Q2" s="184"/>
+      <c r="R2" s="179" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="183"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="191"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
@@ -15895,13 +15895,13 @@
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="183"/>
+      <c r="R3" s="180"/>
     </row>
     <row r="4" spans="2:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="179">
+      <c r="B4" s="190">
         <v>60</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -15955,8 +15955,8 @@
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
@@ -16008,8 +16008,8 @@
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="180"/>
-      <c r="C6" s="180" t="s">
+      <c r="B6" s="186"/>
+      <c r="C6" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -16063,8 +16063,8 @@
       <c r="S6" s="12"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
@@ -16120,8 +16120,8 @@
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="180"/>
-      <c r="C8" s="180" t="s">
+      <c r="B8" s="186"/>
+      <c r="C8" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -16175,8 +16175,8 @@
       <c r="S8" s="12"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
@@ -16228,8 +16228,8 @@
       <c r="S9" s="12"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="180"/>
-      <c r="C10" s="180" t="s">
+      <c r="B10" s="186"/>
+      <c r="C10" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -16283,8 +16283,8 @@
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
@@ -16336,8 +16336,8 @@
       <c r="S11" s="12"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="180"/>
-      <c r="C12" s="180" t="s">
+      <c r="B12" s="186"/>
+      <c r="C12" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -16391,8 +16391,8 @@
       <c r="S12" s="12"/>
     </row>
     <row r="13" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
       <c r="D13" s="38" t="s">
         <v>1</v>
       </c>
@@ -16444,10 +16444,10 @@
       <c r="S13" s="12"/>
     </row>
     <row r="14" spans="2:24" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="179">
+      <c r="B14" s="190">
         <v>120</v>
       </c>
-      <c r="C14" s="179" t="s">
+      <c r="C14" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -16501,8 +16501,8 @@
       <c r="S14" s="12"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
       <c r="D15" s="34" t="s">
         <v>1</v>
       </c>
@@ -16554,8 +16554,8 @@
       <c r="S15" s="12"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="180"/>
-      <c r="C16" s="180" t="s">
+      <c r="B16" s="186"/>
+      <c r="C16" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -16609,8 +16609,8 @@
       <c r="S16" s="12"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="34" t="s">
         <v>1</v>
       </c>
@@ -16662,8 +16662,8 @@
       <c r="S17" s="12"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="180"/>
-      <c r="C18" s="180" t="s">
+      <c r="B18" s="186"/>
+      <c r="C18" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -16721,8 +16721,8 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
       <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
@@ -16774,8 +16774,8 @@
       <c r="S19" s="12"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="180"/>
-      <c r="C20" s="180" t="s">
+      <c r="B20" s="186"/>
+      <c r="C20" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -16834,8 +16834,8 @@
       <c r="X20" s="5"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="34" t="s">
         <v>1</v>
       </c>
@@ -16887,8 +16887,8 @@
       <c r="S21" s="12"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="180"/>
-      <c r="C22" s="180" t="s">
+      <c r="B22" s="186"/>
+      <c r="C22" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -16946,8 +16946,8 @@
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="38" t="s">
         <v>1</v>
       </c>
@@ -16999,10 +16999,10 @@
       <c r="S23" s="12"/>
     </row>
     <row r="24" spans="2:24" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="179">
+      <c r="B24" s="190">
         <v>180</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -17056,8 +17056,8 @@
       <c r="S24" s="12"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
       <c r="D25" s="34" t="s">
         <v>1</v>
       </c>
@@ -17109,8 +17109,8 @@
       <c r="S25" s="12"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="180"/>
-      <c r="C26" s="180" t="s">
+      <c r="B26" s="186"/>
+      <c r="C26" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -17168,8 +17168,8 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
       <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
@@ -17225,8 +17225,8 @@
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="180"/>
-      <c r="C28" s="180" t="s">
+      <c r="B28" s="186"/>
+      <c r="C28" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -17284,8 +17284,8 @@
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="34" t="s">
         <v>1</v>
       </c>
@@ -17341,8 +17341,8 @@
       <c r="W29" s="5"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="180"/>
-      <c r="C30" s="180" t="s">
+      <c r="B30" s="186"/>
+      <c r="C30" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -17400,8 +17400,8 @@
       <c r="W30" s="5"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="180"/>
-      <c r="C31" s="180"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="34" t="s">
         <v>1</v>
       </c>
@@ -17457,8 +17457,8 @@
       <c r="W31" s="5"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="180"/>
-      <c r="C32" s="180" t="s">
+      <c r="B32" s="186"/>
+      <c r="C32" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -17512,8 +17512,8 @@
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
       <c r="D33" s="38" t="s">
         <v>1</v>
       </c>
@@ -17613,6 +17613,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -17624,24 +17642,6 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -17683,51 +17683,51 @@
   <sheetData>
     <row r="1" spans="2:25" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="E2" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="188" t="s">
+      <c r="F2" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180" t="s">
+      <c r="G2" s="186"/>
+      <c r="H2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180" t="s">
+      <c r="K2" s="186"/>
+      <c r="L2" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180" t="s">
+      <c r="M2" s="186"/>
+      <c r="N2" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="189"/>
-      <c r="P2" s="187" t="s">
+      <c r="O2" s="187"/>
+      <c r="P2" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="182" t="s">
+      <c r="Q2" s="184"/>
+      <c r="R2" s="179" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="183"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="191"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="41" t="s">
         <v>9</v>
       </c>
@@ -17764,13 +17764,13 @@
       <c r="Q3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="183"/>
+      <c r="R3" s="180"/>
     </row>
     <row r="4" spans="2:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="179">
+      <c r="B4" s="190">
         <v>60</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -17825,8 +17825,8 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
@@ -17879,8 +17879,8 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="180"/>
-      <c r="C6" s="180" t="s">
+      <c r="B6" s="186"/>
+      <c r="C6" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -17935,8 +17935,8 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
@@ -17989,8 +17989,8 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="180"/>
-      <c r="C8" s="180" t="s">
+      <c r="B8" s="186"/>
+      <c r="C8" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -18045,8 +18045,8 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
@@ -18099,8 +18099,8 @@
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B10" s="180"/>
-      <c r="C10" s="180" t="s">
+      <c r="B10" s="186"/>
+      <c r="C10" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -18155,8 +18155,8 @@
       <c r="U10" s="5"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
@@ -18207,8 +18207,8 @@
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="180"/>
-      <c r="C12" s="180" t="s">
+      <c r="B12" s="186"/>
+      <c r="C12" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -18263,8 +18263,8 @@
       <c r="U12" s="5"/>
     </row>
     <row r="13" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
       <c r="D13" s="38" t="s">
         <v>1</v>
       </c>
@@ -18321,10 +18321,10 @@
       <c r="Y13" s="5"/>
     </row>
     <row r="14" spans="2:25" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="179">
+      <c r="B14" s="190">
         <v>120</v>
       </c>
-      <c r="C14" s="179" t="s">
+      <c r="C14" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -18383,8 +18383,8 @@
       <c r="Y14" s="5"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
       <c r="D15" s="34" t="s">
         <v>1</v>
       </c>
@@ -18440,8 +18440,8 @@
       <c r="Y15" s="5"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="180"/>
-      <c r="C16" s="180" t="s">
+      <c r="B16" s="186"/>
+      <c r="C16" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -18500,8 +18500,8 @@
       <c r="Y16" s="5"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="34" t="s">
         <v>1</v>
       </c>
@@ -18558,8 +18558,8 @@
       <c r="Y17" s="5"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="180"/>
-      <c r="C18" s="180" t="s">
+      <c r="B18" s="186"/>
+      <c r="C18" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -18618,8 +18618,8 @@
       <c r="Y18" s="5"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
       <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
@@ -18676,8 +18676,8 @@
       <c r="Y19" s="5"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B20" s="180"/>
-      <c r="C20" s="180" t="s">
+      <c r="B20" s="186"/>
+      <c r="C20" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -18735,8 +18735,8 @@
       <c r="Y20" s="5"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="34" t="s">
         <v>1</v>
       </c>
@@ -18792,8 +18792,8 @@
       <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B22" s="180"/>
-      <c r="C22" s="180" t="s">
+      <c r="B22" s="186"/>
+      <c r="C22" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -18852,8 +18852,8 @@
       <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="38" t="s">
         <v>1</v>
       </c>
@@ -18905,10 +18905,10 @@
       <c r="T23" s="13"/>
     </row>
     <row r="24" spans="2:25" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="179">
+      <c r="B24" s="190">
         <v>180</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -18962,8 +18962,8 @@
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
       <c r="D25" s="34" t="s">
         <v>1</v>
       </c>
@@ -19015,8 +19015,8 @@
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B26" s="180"/>
-      <c r="C26" s="180" t="s">
+      <c r="B26" s="186"/>
+      <c r="C26" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -19070,8 +19070,8 @@
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
       <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
@@ -19123,8 +19123,8 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B28" s="180"/>
-      <c r="C28" s="180" t="s">
+      <c r="B28" s="186"/>
+      <c r="C28" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -19178,8 +19178,8 @@
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="34" t="s">
         <v>1</v>
       </c>
@@ -19230,8 +19230,8 @@
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="180"/>
-      <c r="C30" s="180" t="s">
+      <c r="B30" s="186"/>
+      <c r="C30" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -19284,8 +19284,8 @@
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="180"/>
-      <c r="C31" s="180"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="34" t="s">
         <v>1</v>
       </c>
@@ -19336,8 +19336,8 @@
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B32" s="180"/>
-      <c r="C32" s="180" t="s">
+      <c r="B32" s="186"/>
+      <c r="C32" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -19390,8 +19390,8 @@
       </c>
     </row>
     <row r="33" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
       <c r="D33" s="38" t="s">
         <v>1</v>
       </c>
@@ -19501,24 +19501,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -19530,6 +19512,24 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19570,51 +19570,51 @@
   <sheetData>
     <row r="1" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="E2" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="188" t="s">
+      <c r="F2" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180" t="s">
+      <c r="G2" s="186"/>
+      <c r="H2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180" t="s">
+      <c r="K2" s="186"/>
+      <c r="L2" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180" t="s">
+      <c r="M2" s="186"/>
+      <c r="N2" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="189"/>
-      <c r="P2" s="187" t="s">
+      <c r="O2" s="187"/>
+      <c r="P2" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="182" t="s">
+      <c r="Q2" s="184"/>
+      <c r="R2" s="179" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="183"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="191"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
@@ -19651,13 +19651,13 @@
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="183"/>
+      <c r="R3" s="180"/>
     </row>
     <row r="4" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="179">
+      <c r="B4" s="190">
         <v>60</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -19710,8 +19710,8 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
@@ -19762,8 +19762,8 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="180"/>
-      <c r="C6" s="180" t="s">
+      <c r="B6" s="186"/>
+      <c r="C6" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -19816,8 +19816,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
@@ -19868,8 +19868,8 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="180"/>
-      <c r="C8" s="180" t="s">
+      <c r="B8" s="186"/>
+      <c r="C8" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -19922,8 +19922,8 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
@@ -19974,8 +19974,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="180"/>
-      <c r="C10" s="180" t="s">
+      <c r="B10" s="186"/>
+      <c r="C10" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -20028,8 +20028,8 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
@@ -20080,8 +20080,8 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="180"/>
-      <c r="C12" s="180" t="s">
+      <c r="B12" s="186"/>
+      <c r="C12" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -20134,8 +20134,8 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
       <c r="D13" s="38" t="s">
         <v>1</v>
       </c>
@@ -20187,10 +20187,10 @@
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="2:20" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="179">
+      <c r="B14" s="190">
         <v>120</v>
       </c>
-      <c r="C14" s="179" t="s">
+      <c r="C14" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -20243,8 +20243,8 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
       <c r="D15" s="34" t="s">
         <v>1</v>
       </c>
@@ -20295,8 +20295,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="180"/>
-      <c r="C16" s="180" t="s">
+      <c r="B16" s="186"/>
+      <c r="C16" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -20349,8 +20349,8 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="34" t="s">
         <v>1</v>
       </c>
@@ -20401,8 +20401,8 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="180"/>
-      <c r="C18" s="180" t="s">
+      <c r="B18" s="186"/>
+      <c r="C18" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -20455,8 +20455,8 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
       <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
@@ -20507,8 +20507,8 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="180"/>
-      <c r="C20" s="180" t="s">
+      <c r="B20" s="186"/>
+      <c r="C20" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -20561,8 +20561,8 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="34" t="s">
         <v>1</v>
       </c>
@@ -20613,8 +20613,8 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="180"/>
-      <c r="C22" s="180" t="s">
+      <c r="B22" s="186"/>
+      <c r="C22" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -20667,8 +20667,8 @@
       </c>
     </row>
     <row r="23" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="38" t="s">
         <v>1</v>
       </c>
@@ -20720,10 +20720,10 @@
       <c r="T23" s="13"/>
     </row>
     <row r="24" spans="2:20" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="179">
+      <c r="B24" s="190">
         <v>180</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -20776,8 +20776,8 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
       <c r="D25" s="34" t="s">
         <v>1</v>
       </c>
@@ -20828,8 +20828,8 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="180"/>
-      <c r="C26" s="180" t="s">
+      <c r="B26" s="186"/>
+      <c r="C26" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -20882,8 +20882,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
       <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
@@ -20934,8 +20934,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="180"/>
-      <c r="C28" s="180" t="s">
+      <c r="B28" s="186"/>
+      <c r="C28" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -20988,8 +20988,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="34" t="s">
         <v>1</v>
       </c>
@@ -21040,8 +21040,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="180"/>
-      <c r="C30" s="180" t="s">
+      <c r="B30" s="186"/>
+      <c r="C30" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -21094,8 +21094,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="180"/>
-      <c r="C31" s="180"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="34" t="s">
         <v>1</v>
       </c>
@@ -21146,8 +21146,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="180"/>
-      <c r="C32" s="180" t="s">
+      <c r="B32" s="186"/>
+      <c r="C32" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -21200,8 +21200,8 @@
       </c>
     </row>
     <row r="33" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
       <c r="D33" s="38" t="s">
         <v>1</v>
       </c>
@@ -21291,24 +21291,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -21320,6 +21302,24 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21360,51 +21360,51 @@
   <sheetData>
     <row r="1" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="E2" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="188" t="s">
+      <c r="F2" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180" t="s">
+      <c r="G2" s="186"/>
+      <c r="H2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180" t="s">
+      <c r="K2" s="186"/>
+      <c r="L2" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180" t="s">
+      <c r="M2" s="186"/>
+      <c r="N2" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="189"/>
-      <c r="P2" s="187" t="s">
+      <c r="O2" s="187"/>
+      <c r="P2" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="182" t="s">
+      <c r="Q2" s="184"/>
+      <c r="R2" s="179" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="183"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="191"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
@@ -21441,13 +21441,13 @@
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="183"/>
+      <c r="R3" s="180"/>
     </row>
     <row r="4" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="179">
+      <c r="B4" s="190">
         <v>60</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -21501,8 +21501,8 @@
       <c r="T4" s="13"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
@@ -21553,8 +21553,8 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="180"/>
-      <c r="C6" s="180" t="s">
+      <c r="B6" s="186"/>
+      <c r="C6" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -21607,8 +21607,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
@@ -21659,8 +21659,8 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="180"/>
-      <c r="C8" s="180" t="s">
+      <c r="B8" s="186"/>
+      <c r="C8" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -21713,8 +21713,8 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
@@ -21765,8 +21765,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="180"/>
-      <c r="C10" s="180" t="s">
+      <c r="B10" s="186"/>
+      <c r="C10" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -21819,8 +21819,8 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
@@ -21871,8 +21871,8 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="180"/>
-      <c r="C12" s="180" t="s">
+      <c r="B12" s="186"/>
+      <c r="C12" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -21925,8 +21925,8 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
       <c r="D13" s="38" t="s">
         <v>1</v>
       </c>
@@ -21977,10 +21977,10 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="179">
+      <c r="B14" s="190">
         <v>120</v>
       </c>
-      <c r="C14" s="179" t="s">
+      <c r="C14" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -22033,8 +22033,8 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
       <c r="D15" s="34" t="s">
         <v>1</v>
       </c>
@@ -22085,8 +22085,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="180"/>
-      <c r="C16" s="180" t="s">
+      <c r="B16" s="186"/>
+      <c r="C16" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -22139,8 +22139,8 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="34" t="s">
         <v>1</v>
       </c>
@@ -22191,8 +22191,8 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="180"/>
-      <c r="C18" s="180" t="s">
+      <c r="B18" s="186"/>
+      <c r="C18" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -22245,8 +22245,8 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
       <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
@@ -22297,8 +22297,8 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="180"/>
-      <c r="C20" s="180" t="s">
+      <c r="B20" s="186"/>
+      <c r="C20" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -22351,8 +22351,8 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="34" t="s">
         <v>1</v>
       </c>
@@ -22403,8 +22403,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="180"/>
-      <c r="C22" s="180" t="s">
+      <c r="B22" s="186"/>
+      <c r="C22" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -22457,8 +22457,8 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="38" t="s">
         <v>1</v>
       </c>
@@ -22509,10 +22509,10 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="179">
+      <c r="B24" s="190">
         <v>180</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -22565,8 +22565,8 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
       <c r="D25" s="34" t="s">
         <v>1</v>
       </c>
@@ -22617,8 +22617,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="180"/>
-      <c r="C26" s="180" t="s">
+      <c r="B26" s="186"/>
+      <c r="C26" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -22671,8 +22671,8 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
       <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
@@ -22723,8 +22723,8 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="180"/>
-      <c r="C28" s="180" t="s">
+      <c r="B28" s="186"/>
+      <c r="C28" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -22777,8 +22777,8 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="34" t="s">
         <v>1</v>
       </c>
@@ -22829,8 +22829,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="180"/>
-      <c r="C30" s="180" t="s">
+      <c r="B30" s="186"/>
+      <c r="C30" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -22883,8 +22883,8 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="180"/>
-      <c r="C31" s="180"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="34" t="s">
         <v>1</v>
       </c>
@@ -22935,8 +22935,8 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="180"/>
-      <c r="C32" s="180" t="s">
+      <c r="B32" s="186"/>
+      <c r="C32" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -22989,8 +22989,8 @@
       </c>
     </row>
     <row r="33" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
       <c r="D33" s="38" t="s">
         <v>1</v>
       </c>
@@ -23083,24 +23083,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -23112,6 +23094,24 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23152,51 +23152,51 @@
   <sheetData>
     <row r="1" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="E2" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="188" t="s">
+      <c r="F2" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="180"/>
+      <c r="G2" s="186"/>
       <c r="H2" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="188"/>
-      <c r="J2" s="180" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180" t="s">
+      <c r="K2" s="186"/>
+      <c r="L2" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180" t="s">
+      <c r="M2" s="186"/>
+      <c r="N2" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="189"/>
-      <c r="P2" s="187" t="s">
+      <c r="O2" s="187"/>
+      <c r="P2" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="182" t="s">
+      <c r="Q2" s="184"/>
+      <c r="R2" s="179" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="183"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="191"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
@@ -23233,13 +23233,13 @@
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="183"/>
+      <c r="R3" s="180"/>
     </row>
     <row r="4" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="179">
+      <c r="B4" s="190">
         <v>60</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -23292,8 +23292,8 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
@@ -23344,8 +23344,8 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="180"/>
-      <c r="C6" s="180" t="s">
+      <c r="B6" s="186"/>
+      <c r="C6" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -23398,8 +23398,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
@@ -23450,8 +23450,8 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="180"/>
-      <c r="C8" s="180" t="s">
+      <c r="B8" s="186"/>
+      <c r="C8" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -23504,8 +23504,8 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
@@ -23556,8 +23556,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="180"/>
-      <c r="C10" s="180" t="s">
+      <c r="B10" s="186"/>
+      <c r="C10" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -23610,8 +23610,8 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
@@ -23662,8 +23662,8 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="180"/>
-      <c r="C12" s="180" t="s">
+      <c r="B12" s="186"/>
+      <c r="C12" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -23719,8 +23719,8 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
       <c r="D13" s="38" t="s">
         <v>1</v>
       </c>
@@ -23774,10 +23774,10 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="179">
+      <c r="B14" s="190">
         <v>120</v>
       </c>
-      <c r="C14" s="179" t="s">
+      <c r="C14" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -23830,8 +23830,8 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
       <c r="D15" s="34" t="s">
         <v>1</v>
       </c>
@@ -23882,8 +23882,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="180"/>
-      <c r="C16" s="180" t="s">
+      <c r="B16" s="186"/>
+      <c r="C16" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -23936,8 +23936,8 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="34" t="s">
         <v>1</v>
       </c>
@@ -23988,8 +23988,8 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="180"/>
-      <c r="C18" s="180" t="s">
+      <c r="B18" s="186"/>
+      <c r="C18" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -24042,8 +24042,8 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
       <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
@@ -24094,8 +24094,8 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="180"/>
-      <c r="C20" s="180" t="s">
+      <c r="B20" s="186"/>
+      <c r="C20" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -24148,8 +24148,8 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="34" t="s">
         <v>1</v>
       </c>
@@ -24200,8 +24200,8 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="180"/>
-      <c r="C22" s="180" t="s">
+      <c r="B22" s="186"/>
+      <c r="C22" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -24254,8 +24254,8 @@
       </c>
     </row>
     <row r="23" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="38" t="s">
         <v>1</v>
       </c>
@@ -24306,10 +24306,10 @@
       </c>
     </row>
     <row r="24" spans="2:20" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="179">
+      <c r="B24" s="190">
         <v>180</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -24362,8 +24362,8 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
       <c r="D25" s="34" t="s">
         <v>1</v>
       </c>
@@ -24414,8 +24414,8 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="180"/>
-      <c r="C26" s="180" t="s">
+      <c r="B26" s="186"/>
+      <c r="C26" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -24469,8 +24469,8 @@
       <c r="T26" s="12"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
       <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
@@ -24521,8 +24521,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="180"/>
-      <c r="C28" s="180" t="s">
+      <c r="B28" s="186"/>
+      <c r="C28" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -24575,8 +24575,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="34" t="s">
         <v>1</v>
       </c>
@@ -24627,8 +24627,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="180"/>
-      <c r="C30" s="180" t="s">
+      <c r="B30" s="186"/>
+      <c r="C30" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -24681,8 +24681,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="180"/>
-      <c r="C31" s="180"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="34" t="s">
         <v>1</v>
       </c>
@@ -24733,8 +24733,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="180"/>
-      <c r="C32" s="180" t="s">
+      <c r="B32" s="186"/>
+      <c r="C32" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -24790,8 +24790,8 @@
       </c>
     </row>
     <row r="33" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
       <c r="D33" s="38" t="s">
         <v>1</v>
       </c>
@@ -24932,24 +24932,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -24961,6 +24943,24 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25002,51 +25002,51 @@
   <sheetData>
     <row r="1" spans="2:23" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="E2" s="188" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="188"/>
+      <c r="G2" s="185"/>
       <c r="H2" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="188"/>
+      <c r="I2" s="185"/>
       <c r="J2" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="185"/>
       <c r="L2" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="188"/>
+      <c r="M2" s="185"/>
       <c r="N2" s="192" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="194"/>
-      <c r="P2" s="187" t="s">
+      <c r="P2" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="182" t="s">
+      <c r="Q2" s="184"/>
+      <c r="R2" s="179" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="183"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="191"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
@@ -25083,13 +25083,13 @@
       <c r="Q3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="183"/>
+      <c r="R3" s="180"/>
     </row>
     <row r="4" spans="2:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="179">
+      <c r="B4" s="190">
         <v>60</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -25142,8 +25142,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
@@ -25194,8 +25194,8 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="180"/>
-      <c r="C6" s="180" t="s">
+      <c r="B6" s="186"/>
+      <c r="C6" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -25248,8 +25248,8 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
@@ -25300,8 +25300,8 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="180"/>
-      <c r="C8" s="180" t="s">
+      <c r="B8" s="186"/>
+      <c r="C8" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -25354,8 +25354,8 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
@@ -25406,8 +25406,8 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="180"/>
-      <c r="C10" s="180" t="s">
+      <c r="B10" s="186"/>
+      <c r="C10" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -25460,8 +25460,8 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
@@ -25512,8 +25512,8 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="180"/>
-      <c r="C12" s="180" t="s">
+      <c r="B12" s="186"/>
+      <c r="C12" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -25566,8 +25566,8 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
       <c r="D13" s="38" t="s">
         <v>1</v>
       </c>
@@ -25619,10 +25619,10 @@
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="179">
+      <c r="B14" s="190">
         <v>120</v>
       </c>
-      <c r="C14" s="179" t="s">
+      <c r="C14" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -25675,8 +25675,8 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
       <c r="D15" s="34" t="s">
         <v>1</v>
       </c>
@@ -25727,8 +25727,8 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="180"/>
-      <c r="C16" s="180" t="s">
+      <c r="B16" s="186"/>
+      <c r="C16" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -25785,8 +25785,8 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="34" t="s">
         <v>1</v>
       </c>
@@ -25841,8 +25841,8 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="180"/>
-      <c r="C18" s="180" t="s">
+      <c r="B18" s="186"/>
+      <c r="C18" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -25899,8 +25899,8 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
       <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
@@ -25955,8 +25955,8 @@
       <c r="W19" s="5"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="180"/>
-      <c r="C20" s="180" t="s">
+      <c r="B20" s="186"/>
+      <c r="C20" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -26013,8 +26013,8 @@
       <c r="W20" s="5"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="34" t="s">
         <v>1</v>
       </c>
@@ -26069,8 +26069,8 @@
       <c r="W21" s="5"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="180"/>
-      <c r="C22" s="180" t="s">
+      <c r="B22" s="186"/>
+      <c r="C22" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -26127,8 +26127,8 @@
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="38" t="s">
         <v>1</v>
       </c>
@@ -26182,10 +26182,10 @@
       <c r="W23" s="5"/>
     </row>
     <row r="24" spans="2:23" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="179">
+      <c r="B24" s="190">
         <v>180</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -26241,8 +26241,8 @@
       <c r="W24" s="5"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
       <c r="D25" s="34" t="s">
         <v>1</v>
       </c>
@@ -26297,8 +26297,8 @@
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="180"/>
-      <c r="C26" s="180" t="s">
+      <c r="B26" s="186"/>
+      <c r="C26" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -26355,8 +26355,8 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
       <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
@@ -26411,8 +26411,8 @@
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="180"/>
-      <c r="C28" s="180" t="s">
+      <c r="B28" s="186"/>
+      <c r="C28" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -26469,8 +26469,8 @@
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="34" t="s">
         <v>1</v>
       </c>
@@ -26525,8 +26525,8 @@
       <c r="W29" s="5"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="180"/>
-      <c r="C30" s="180" t="s">
+      <c r="B30" s="186"/>
+      <c r="C30" s="186" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
@@ -26583,8 +26583,8 @@
       <c r="W30" s="5"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="180"/>
-      <c r="C31" s="180"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="34" t="s">
         <v>1</v>
       </c>
@@ -26639,8 +26639,8 @@
       <c r="W31" s="5"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="180"/>
-      <c r="C32" s="180" t="s">
+      <c r="B32" s="186"/>
+      <c r="C32" s="186" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -26697,8 +26697,8 @@
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
       <c r="D33" s="38" t="s">
         <v>1</v>
       </c>
@@ -26801,24 +26801,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -26830,6 +26812,24 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26842,8 +26842,8 @@
   </sheetPr>
   <dimension ref="B1:AN231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26884,48 +26884,48 @@
   <sheetData>
     <row r="1" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="214" t="s">
+      <c r="C2" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="214" t="s">
+      <c r="D2" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="220" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="206"/>
-      <c r="H2" s="205" t="s">
+      <c r="G2" s="221"/>
+      <c r="H2" s="220" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="206"/>
-      <c r="J2" s="205" t="s">
+      <c r="I2" s="221"/>
+      <c r="J2" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="206"/>
-      <c r="L2" s="205" t="s">
+      <c r="K2" s="221"/>
+      <c r="L2" s="220" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="206"/>
-      <c r="N2" s="205" t="s">
+      <c r="M2" s="221"/>
+      <c r="N2" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="206"/>
-      <c r="P2" s="205" t="s">
+      <c r="O2" s="221"/>
+      <c r="P2" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="206"/>
+      <c r="Q2" s="221"/>
     </row>
     <row r="3" spans="2:32" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="211"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="225"/>
       <c r="F3" s="78" t="s">
         <v>87</v>
       </c>
@@ -26964,10 +26964,10 @@
       </c>
     </row>
     <row r="4" spans="2:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="209">
+      <c r="B4" s="222">
         <v>60</v>
       </c>
-      <c r="C4" s="209" t="s">
+      <c r="C4" s="222" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="44" t="s">
@@ -27017,8 +27017,8 @@
       </c>
     </row>
     <row r="5" spans="2:32" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="210"/>
-      <c r="C5" s="212"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="223"/>
       <c r="D5" s="45" t="s">
         <v>1</v>
       </c>
@@ -27061,28 +27061,28 @@
       <c r="Q5" s="85">
         <v>11.169763684104211</v>
       </c>
-      <c r="T5" s="203" t="s">
+      <c r="T5" s="195" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="225"/>
-      <c r="V5" s="203" t="s">
+      <c r="U5" s="196"/>
+      <c r="V5" s="195" t="s">
         <v>159</v>
       </c>
-      <c r="W5" s="225"/>
-      <c r="X5" s="225"/>
-      <c r="Y5" s="225"/>
-      <c r="Z5" s="225"/>
-      <c r="AA5" s="225"/>
-      <c r="AB5" s="225"/>
-      <c r="AC5" s="204"/>
+      <c r="W5" s="196"/>
+      <c r="X5" s="196"/>
+      <c r="Y5" s="196"/>
+      <c r="Z5" s="196"/>
+      <c r="AA5" s="196"/>
+      <c r="AB5" s="196"/>
+      <c r="AC5" s="197"/>
       <c r="AD5" s="104"/>
       <c r="AF5" s="103" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="210"/>
-      <c r="C6" s="209" t="s">
+      <c r="B6" s="209"/>
+      <c r="C6" s="222" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="44" t="s">
@@ -27161,8 +27161,8 @@
       </c>
     </row>
     <row r="7" spans="2:32" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="210"/>
-      <c r="C7" s="212"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="223"/>
       <c r="D7" s="45" t="s">
         <v>1</v>
       </c>
@@ -27205,10 +27205,10 @@
       <c r="Q7" s="85">
         <v>8.9771763280145507</v>
       </c>
-      <c r="T7" s="213" t="s">
+      <c r="T7" s="211" t="s">
         <v>79</v>
       </c>
-      <c r="U7" s="219" t="s">
+      <c r="U7" s="212" t="s">
         <v>164</v>
       </c>
       <c r="V7" s="134" t="s">
@@ -27235,13 +27235,13 @@
       <c r="AC7" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="AD7" s="222"/>
+      <c r="AD7" s="207"/>
       <c r="AF7" s="103" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="210"/>
+      <c r="B8" s="209"/>
       <c r="C8" s="142"/>
       <c r="D8" s="142"/>
       <c r="E8" s="143"/>
@@ -27257,8 +27257,8 @@
       <c r="O8" s="145"/>
       <c r="P8" s="144"/>
       <c r="Q8" s="145"/>
-      <c r="T8" s="224"/>
-      <c r="U8" s="220"/>
+      <c r="T8" s="199"/>
+      <c r="U8" s="201"/>
       <c r="V8" s="89" t="s">
         <v>158</v>
       </c>
@@ -27283,12 +27283,12 @@
       <c r="AC8" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="AD8" s="222"/>
+      <c r="AD8" s="207"/>
       <c r="AF8" s="103"/>
     </row>
     <row r="9" spans="2:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="210"/>
-      <c r="C9" s="209" t="s">
+      <c r="B9" s="209"/>
+      <c r="C9" s="222" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -27333,10 +27333,10 @@
       <c r="Q9" s="82">
         <v>8.9730357503534748</v>
       </c>
-      <c r="T9" s="211" t="s">
+      <c r="T9" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="U9" s="215" t="s">
+      <c r="U9" s="200" t="s">
         <v>163</v>
       </c>
       <c r="V9" s="89" t="s">
@@ -27363,14 +27363,14 @@
       <c r="AC9" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="AD9" s="223"/>
+      <c r="AD9" s="208"/>
       <c r="AF9" s="103" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="210"/>
-      <c r="C10" s="213"/>
+      <c r="B10" s="209"/>
+      <c r="C10" s="211"/>
       <c r="D10" s="142"/>
       <c r="E10" s="143"/>
       <c r="F10" s="144"/>
@@ -27385,8 +27385,8 @@
       <c r="O10" s="145"/>
       <c r="P10" s="144"/>
       <c r="Q10" s="145"/>
-      <c r="T10" s="224"/>
-      <c r="U10" s="220"/>
+      <c r="T10" s="199"/>
+      <c r="U10" s="201"/>
       <c r="V10" s="89" t="s">
         <v>158</v>
       </c>
@@ -27411,12 +27411,12 @@
       <c r="AC10" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="AD10" s="223"/>
+      <c r="AD10" s="208"/>
       <c r="AF10" s="103"/>
     </row>
     <row r="11" spans="2:32" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="210"/>
-      <c r="C11" s="212"/>
+      <c r="B11" s="209"/>
+      <c r="C11" s="223"/>
       <c r="D11" s="45" t="s">
         <v>1</v>
       </c>
@@ -27459,10 +27459,10 @@
       <c r="Q11" s="85">
         <v>7.4710159563724545</v>
       </c>
-      <c r="T11" s="211" t="s">
+      <c r="T11" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="U11" s="215" t="s">
+      <c r="U11" s="200" t="s">
         <v>165</v>
       </c>
       <c r="V11" s="89" t="s">
@@ -27489,13 +27489,13 @@
       <c r="AC11" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="AD11" s="223"/>
+      <c r="AD11" s="208"/>
       <c r="AF11" s="103" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:32" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="210"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="142"/>
       <c r="D12" s="142"/>
       <c r="E12" s="143"/>
@@ -27511,8 +27511,8 @@
       <c r="O12" s="145"/>
       <c r="P12" s="144"/>
       <c r="Q12" s="145"/>
-      <c r="T12" s="224"/>
-      <c r="U12" s="220"/>
+      <c r="T12" s="199"/>
+      <c r="U12" s="201"/>
       <c r="V12" s="89" t="s">
         <v>158</v>
       </c>
@@ -27537,12 +27537,12 @@
       <c r="AC12" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="AD12" s="223"/>
+      <c r="AD12" s="208"/>
       <c r="AF12" s="103"/>
     </row>
     <row r="13" spans="2:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="210"/>
-      <c r="C13" s="209" t="s">
+      <c r="B13" s="209"/>
+      <c r="C13" s="222" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="44" t="s">
@@ -27587,10 +27587,10 @@
       <c r="Q13" s="82">
         <v>8.8215291860230423</v>
       </c>
-      <c r="T13" s="211" t="s">
+      <c r="T13" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="U13" s="215" t="s">
+      <c r="U13" s="200" t="s">
         <v>166</v>
       </c>
       <c r="V13" s="89" t="s">
@@ -27617,14 +27617,14 @@
       <c r="AC13" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="AD13" s="223"/>
+      <c r="AD13" s="208"/>
       <c r="AF13" s="103" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:32" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="210"/>
-      <c r="C14" s="213"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="211"/>
       <c r="D14" s="142"/>
       <c r="E14" s="143"/>
       <c r="F14" s="144"/>
@@ -27639,8 +27639,8 @@
       <c r="O14" s="145"/>
       <c r="P14" s="144"/>
       <c r="Q14" s="145"/>
-      <c r="T14" s="226"/>
-      <c r="U14" s="227"/>
+      <c r="T14" s="202"/>
+      <c r="U14" s="203"/>
       <c r="V14" s="149" t="s">
         <v>158</v>
       </c>
@@ -27665,12 +27665,12 @@
       <c r="AC14" s="155" t="s">
         <v>170</v>
       </c>
-      <c r="AD14" s="223"/>
+      <c r="AD14" s="208"/>
       <c r="AF14" s="103"/>
     </row>
     <row r="15" spans="2:32" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="210"/>
-      <c r="C15" s="212"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="223"/>
       <c r="D15" s="45" t="s">
         <v>1</v>
       </c>
@@ -27713,10 +27713,10 @@
       <c r="Q15" s="85">
         <v>7.4277923651787603</v>
       </c>
-      <c r="T15" s="217" t="s">
+      <c r="T15" s="219" t="s">
         <v>111</v>
       </c>
-      <c r="U15" s="219" t="s">
+      <c r="U15" s="212" t="s">
         <v>164</v>
       </c>
       <c r="V15" s="134" t="s">
@@ -27743,13 +27743,13 @@
       <c r="AC15" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="AD15" s="223"/>
+      <c r="AD15" s="208"/>
       <c r="AF15" s="103" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:32" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="210"/>
+      <c r="B16" s="209"/>
       <c r="C16" s="142"/>
       <c r="D16" s="142"/>
       <c r="E16" s="143"/>
@@ -27765,8 +27765,8 @@
       <c r="O16" s="145"/>
       <c r="P16" s="144"/>
       <c r="Q16" s="145"/>
-      <c r="T16" s="218"/>
-      <c r="U16" s="220"/>
+      <c r="T16" s="205"/>
+      <c r="U16" s="201"/>
       <c r="V16" s="89" t="s">
         <v>158</v>
       </c>
@@ -27795,8 +27795,8 @@
       <c r="AF16" s="103"/>
     </row>
     <row r="17" spans="2:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="210"/>
-      <c r="C17" s="209" t="s">
+      <c r="B17" s="209"/>
+      <c r="C17" s="222" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="44" t="s">
@@ -27841,10 +27841,10 @@
       <c r="Q17" s="82">
         <v>8.6808986628963822</v>
       </c>
-      <c r="T17" s="221" t="s">
+      <c r="T17" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="U17" s="215" t="s">
+      <c r="U17" s="200" t="s">
         <v>163</v>
       </c>
       <c r="V17" s="89" t="s">
@@ -27877,8 +27877,8 @@
       </c>
     </row>
     <row r="18" spans="2:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="211"/>
-      <c r="C18" s="213"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="211"/>
       <c r="D18" s="142"/>
       <c r="E18" s="143"/>
       <c r="F18" s="144"/>
@@ -27893,8 +27893,8 @@
       <c r="O18" s="145"/>
       <c r="P18" s="144"/>
       <c r="Q18" s="145"/>
-      <c r="T18" s="218"/>
-      <c r="U18" s="220"/>
+      <c r="T18" s="205"/>
+      <c r="U18" s="201"/>
       <c r="V18" s="89" t="s">
         <v>158</v>
       </c>
@@ -27923,8 +27923,8 @@
       <c r="AF18" s="103"/>
     </row>
     <row r="19" spans="2:32" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="212"/>
-      <c r="C19" s="212"/>
+      <c r="B19" s="223"/>
+      <c r="C19" s="223"/>
       <c r="D19" s="45" t="s">
         <v>1</v>
       </c>
@@ -27967,10 +27967,10 @@
       <c r="Q19" s="85">
         <v>6.1950111088669075</v>
       </c>
-      <c r="T19" s="221" t="s">
+      <c r="T19" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="U19" s="215" t="s">
+      <c r="U19" s="200" t="s">
         <v>165</v>
       </c>
       <c r="V19" s="89" t="s">
@@ -28019,8 +28019,8 @@
       <c r="O20" s="158"/>
       <c r="P20" s="157"/>
       <c r="Q20" s="88"/>
-      <c r="T20" s="218"/>
-      <c r="U20" s="220"/>
+      <c r="T20" s="205"/>
+      <c r="U20" s="201"/>
       <c r="V20" s="89" t="s">
         <v>158</v>
       </c>
@@ -28065,10 +28065,10 @@
       <c r="O21" s="88"/>
       <c r="P21" s="87"/>
       <c r="Q21" s="88"/>
-      <c r="T21" s="221" t="s">
+      <c r="T21" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="U21" s="215" t="s">
+      <c r="U21" s="200" t="s">
         <v>166</v>
       </c>
       <c r="V21" s="89" t="s">
@@ -28117,8 +28117,8 @@
       <c r="O22" s="88"/>
       <c r="P22" s="87"/>
       <c r="Q22" s="88"/>
-      <c r="T22" s="228"/>
-      <c r="U22" s="227"/>
+      <c r="T22" s="206"/>
+      <c r="U22" s="203"/>
       <c r="V22" s="149" t="s">
         <v>158</v>
       </c>
@@ -28147,52 +28147,52 @@
       <c r="AF22" s="103"/>
     </row>
     <row r="23" spans="2:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="214" t="s">
+      <c r="B23" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="214" t="s">
+      <c r="C23" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="214" t="s">
+      <c r="D23" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="207" t="s">
+      <c r="E23" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="205" t="s">
+      <c r="F23" s="220" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="206"/>
-      <c r="H23" s="205" t="s">
+      <c r="G23" s="221"/>
+      <c r="H23" s="220" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="206"/>
-      <c r="J23" s="205" t="s">
+      <c r="I23" s="221"/>
+      <c r="J23" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="206"/>
-      <c r="L23" s="205" t="s">
+      <c r="K23" s="221"/>
+      <c r="L23" s="220" t="s">
         <v>72</v>
       </c>
-      <c r="M23" s="206"/>
-      <c r="N23" s="205" t="s">
+      <c r="M23" s="221"/>
+      <c r="N23" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="206"/>
-      <c r="P23" s="205" t="s">
+      <c r="O23" s="221"/>
+      <c r="P23" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="Q23" s="206"/>
+      <c r="Q23" s="221"/>
       <c r="AD23" s="147"/>
       <c r="AF23" s="103" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:32" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="212"/>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="208"/>
+      <c r="B24" s="223"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="225"/>
       <c r="F24" s="78" t="s">
         <v>87</v>
       </c>
@@ -28241,10 +28241,10 @@
       </c>
     </row>
     <row r="25" spans="2:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="209">
+      <c r="B25" s="222">
         <v>120</v>
       </c>
-      <c r="C25" s="209" t="s">
+      <c r="C25" s="222" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="44" t="s">
@@ -28300,8 +28300,8 @@
       </c>
     </row>
     <row r="26" spans="2:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="210"/>
-      <c r="C26" s="212"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="223"/>
       <c r="D26" s="45" t="s">
         <v>1</v>
       </c>
@@ -28354,8 +28354,8 @@
       </c>
     </row>
     <row r="27" spans="2:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="210"/>
-      <c r="C27" s="209" t="s">
+      <c r="B27" s="209"/>
+      <c r="C27" s="222" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -28414,8 +28414,8 @@
       </c>
     </row>
     <row r="28" spans="2:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="210"/>
-      <c r="C28" s="212"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="223"/>
       <c r="D28" s="45" t="s">
         <v>1</v>
       </c>
@@ -28472,8 +28472,8 @@
       </c>
     </row>
     <row r="29" spans="2:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="210"/>
-      <c r="C29" s="209" t="s">
+      <c r="B29" s="209"/>
+      <c r="C29" s="222" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="44" t="s">
@@ -28528,8 +28528,8 @@
       <c r="AA29" s="105"/>
     </row>
     <row r="30" spans="2:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="210"/>
-      <c r="C30" s="212"/>
+      <c r="B30" s="209"/>
+      <c r="C30" s="223"/>
       <c r="D30" s="45" t="s">
         <v>1</v>
       </c>
@@ -28582,8 +28582,8 @@
       <c r="AA30" s="105"/>
     </row>
     <row r="31" spans="2:32" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="210"/>
-      <c r="C31" s="209" t="s">
+      <c r="B31" s="209"/>
+      <c r="C31" s="222" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="44" t="s">
@@ -28632,8 +28632,8 @@
       <c r="AA31" s="105"/>
     </row>
     <row r="32" spans="2:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="210"/>
-      <c r="C32" s="212"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="223"/>
       <c r="D32" s="45" t="s">
         <v>1</v>
       </c>
@@ -28683,8 +28683,8 @@
       <c r="AE32" s="156"/>
     </row>
     <row r="33" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="210"/>
-      <c r="C33" s="209" t="s">
+      <c r="B33" s="209"/>
+      <c r="C33" s="222" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="44" t="s">
@@ -28729,14 +28729,14 @@
       <c r="Q33" s="82">
         <v>7.5367932134922313</v>
       </c>
-      <c r="U33" s="232" t="s">
+      <c r="U33" s="216" t="s">
         <v>147</v>
       </c>
-      <c r="V33" s="233"/>
-      <c r="W33" s="230" t="s">
+      <c r="V33" s="217"/>
+      <c r="W33" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="X33" s="231"/>
+      <c r="X33" s="215"/>
       <c r="Y33" s="128" t="s">
         <v>150</v>
       </c>
@@ -28749,8 +28749,8 @@
       <c r="AE33" s="156"/>
     </row>
     <row r="34" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="212"/>
-      <c r="C34" s="212"/>
+      <c r="B34" s="223"/>
+      <c r="C34" s="223"/>
       <c r="D34" s="45" t="s">
         <v>1</v>
       </c>
@@ -28793,14 +28793,14 @@
       <c r="Q34" s="85">
         <v>4.1809633407392681</v>
       </c>
-      <c r="U34" s="232" t="s">
+      <c r="U34" s="216" t="s">
         <v>148</v>
       </c>
-      <c r="V34" s="233"/>
-      <c r="W34" s="230" t="s">
+      <c r="V34" s="217"/>
+      <c r="W34" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="X34" s="231"/>
+      <c r="X34" s="215"/>
       <c r="Y34" s="128" t="s">
         <v>169</v>
       </c>
@@ -28829,14 +28829,14 @@
       <c r="O35" s="88"/>
       <c r="P35" s="87"/>
       <c r="Q35" s="88"/>
-      <c r="U35" s="232" t="s">
+      <c r="U35" s="216" t="s">
         <v>149</v>
       </c>
-      <c r="V35" s="233"/>
-      <c r="W35" s="230" t="s">
+      <c r="V35" s="217"/>
+      <c r="W35" s="214" t="s">
         <v>75</v>
       </c>
-      <c r="X35" s="231"/>
+      <c r="X35" s="215"/>
       <c r="Y35" s="128" t="s">
         <v>168</v>
       </c>
@@ -28846,49 +28846,49 @@
       <c r="AA35" s="105"/>
     </row>
     <row r="36" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="214" t="s">
+      <c r="B36" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="214" t="s">
+      <c r="C36" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="214" t="s">
+      <c r="D36" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="207" t="s">
+      <c r="E36" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="205" t="s">
+      <c r="F36" s="220" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="206"/>
-      <c r="H36" s="205" t="s">
+      <c r="G36" s="221"/>
+      <c r="H36" s="220" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="206"/>
-      <c r="J36" s="205" t="s">
+      <c r="I36" s="221"/>
+      <c r="J36" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="K36" s="206"/>
-      <c r="L36" s="205" t="s">
+      <c r="K36" s="221"/>
+      <c r="L36" s="220" t="s">
         <v>72</v>
       </c>
-      <c r="M36" s="206"/>
-      <c r="N36" s="205" t="s">
+      <c r="M36" s="221"/>
+      <c r="N36" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="O36" s="206"/>
-      <c r="P36" s="205" t="s">
+      <c r="O36" s="221"/>
+      <c r="P36" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="Q36" s="206"/>
-      <c r="U36" s="229" t="s">
+      <c r="Q36" s="221"/>
+      <c r="U36" s="213" t="s">
         <v>174</v>
       </c>
-      <c r="V36" s="229"/>
-      <c r="W36" s="229"/>
-      <c r="X36" s="229"/>
-      <c r="Y36" s="229"/>
+      <c r="V36" s="213"/>
+      <c r="W36" s="213"/>
+      <c r="X36" s="213"/>
+      <c r="Y36" s="213"/>
       <c r="Z36" s="161">
         <f>(Z33-Z35*Z34)/(SQRT((1-Z35^2)*(1-Z34^2)))</f>
         <v>0.87733595130890851</v>
@@ -28896,10 +28896,10 @@
       <c r="AA36" s="105"/>
     </row>
     <row r="37" spans="2:31" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="212"/>
-      <c r="C37" s="215"/>
-      <c r="D37" s="215"/>
-      <c r="E37" s="208"/>
+      <c r="B37" s="223"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="200"/>
+      <c r="E37" s="225"/>
       <c r="F37" s="78" t="s">
         <v>87</v>
       </c>
@@ -28942,10 +28942,10 @@
       <c r="AA37" s="105"/>
     </row>
     <row r="38" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="209">
+      <c r="B38" s="222">
         <v>180</v>
       </c>
-      <c r="C38" s="209" t="s">
+      <c r="C38" s="222" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="44" t="s">
@@ -28997,8 +28997,8 @@
       <c r="AA38" s="105"/>
     </row>
     <row r="39" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="210"/>
-      <c r="C39" s="212"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="223"/>
       <c r="D39" s="45" t="s">
         <v>1</v>
       </c>
@@ -29048,8 +29048,8 @@
       <c r="AA39" s="105"/>
     </row>
     <row r="40" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="210"/>
-      <c r="C40" s="209" t="s">
+      <c r="B40" s="209"/>
+      <c r="C40" s="222" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="44" t="s">
@@ -29101,8 +29101,8 @@
       <c r="AA40" s="105"/>
     </row>
     <row r="41" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="210"/>
-      <c r="C41" s="212"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="223"/>
       <c r="D41" s="45" t="s">
         <v>1</v>
       </c>
@@ -29152,8 +29152,8 @@
       <c r="AA41" s="105"/>
     </row>
     <row r="42" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="210"/>
-      <c r="C42" s="209" t="s">
+      <c r="B42" s="209"/>
+      <c r="C42" s="222" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="44" t="s">
@@ -29200,8 +29200,8 @@
       </c>
     </row>
     <row r="43" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="210"/>
-      <c r="C43" s="212"/>
+      <c r="B43" s="209"/>
+      <c r="C43" s="223"/>
       <c r="D43" s="45" t="s">
         <v>1</v>
       </c>
@@ -29246,8 +29246,8 @@
       </c>
     </row>
     <row r="44" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="210"/>
-      <c r="C44" s="209" t="s">
+      <c r="B44" s="209"/>
+      <c r="C44" s="222" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="44" t="s">
@@ -29294,8 +29294,8 @@
       </c>
     </row>
     <row r="45" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="210"/>
-      <c r="C45" s="212"/>
+      <c r="B45" s="209"/>
+      <c r="C45" s="223"/>
       <c r="D45" s="45" t="s">
         <v>1</v>
       </c>
@@ -29340,8 +29340,8 @@
       </c>
     </row>
     <row r="46" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="210"/>
-      <c r="C46" s="209" t="s">
+      <c r="B46" s="209"/>
+      <c r="C46" s="222" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="44" t="s">
@@ -29388,8 +29388,8 @@
       </c>
     </row>
     <row r="47" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="212"/>
-      <c r="C47" s="212"/>
+      <c r="B47" s="223"/>
+      <c r="C47" s="223"/>
       <c r="D47" s="45" t="s">
         <v>1</v>
       </c>
@@ -29435,58 +29435,58 @@
     </row>
     <row r="48" spans="2:31" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF66" s="199" t="s">
+      <c r="AF66" s="230" t="s">
         <v>92</v>
       </c>
-      <c r="AG66" s="200"/>
-      <c r="AH66" s="200"/>
-      <c r="AI66" s="201"/>
-      <c r="AK66" s="199" t="s">
+      <c r="AG66" s="231"/>
+      <c r="AH66" s="231"/>
+      <c r="AI66" s="232"/>
+      <c r="AK66" s="230" t="s">
         <v>93</v>
       </c>
-      <c r="AL66" s="200"/>
-      <c r="AM66" s="200"/>
-      <c r="AN66" s="201"/>
+      <c r="AL66" s="231"/>
+      <c r="AM66" s="231"/>
+      <c r="AN66" s="232"/>
     </row>
     <row r="67" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF67" s="199" t="s">
+      <c r="AF67" s="230" t="s">
         <v>90</v>
       </c>
-      <c r="AG67" s="200"/>
-      <c r="AH67" s="200"/>
-      <c r="AI67" s="201"/>
-      <c r="AK67" s="199" t="s">
+      <c r="AG67" s="231"/>
+      <c r="AH67" s="231"/>
+      <c r="AI67" s="232"/>
+      <c r="AK67" s="230" t="s">
         <v>91</v>
       </c>
-      <c r="AL67" s="200"/>
-      <c r="AM67" s="200"/>
-      <c r="AN67" s="201"/>
+      <c r="AL67" s="231"/>
+      <c r="AM67" s="231"/>
+      <c r="AN67" s="232"/>
     </row>
     <row r="68" spans="32:40" x14ac:dyDescent="0.2">
       <c r="AF68" s="91"/>
       <c r="AG68" s="91"/>
-      <c r="AH68" s="202"/>
-      <c r="AI68" s="202"/>
+      <c r="AH68" s="233"/>
+      <c r="AI68" s="233"/>
       <c r="AK68" s="91"/>
       <c r="AL68" s="91"/>
-      <c r="AM68" s="202"/>
-      <c r="AN68" s="202"/>
+      <c r="AM68" s="233"/>
+      <c r="AN68" s="233"/>
     </row>
     <row r="69" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF69" s="197" t="s">
+      <c r="AF69" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="AG69" s="198"/>
+      <c r="AG69" s="229"/>
       <c r="AH69" s="47">
         <v>120</v>
       </c>
       <c r="AI69" s="47">
         <v>180</v>
       </c>
-      <c r="AK69" s="197" t="s">
+      <c r="AK69" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="AL69" s="198"/>
+      <c r="AL69" s="229"/>
       <c r="AM69" s="47">
         <v>120</v>
       </c>
@@ -29495,20 +29495,20 @@
       </c>
     </row>
     <row r="70" spans="32:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="AF70" s="203" t="s">
+      <c r="AF70" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="AG70" s="204"/>
+      <c r="AG70" s="197"/>
       <c r="AH70" s="48" t="s">
         <v>80</v>
       </c>
       <c r="AI70" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AK70" s="203" t="s">
+      <c r="AK70" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="AL70" s="204"/>
+      <c r="AL70" s="197"/>
       <c r="AM70" s="48" t="s">
         <v>80</v>
       </c>
@@ -29517,7 +29517,7 @@
       </c>
     </row>
     <row r="71" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF71" s="195" t="s">
+      <c r="AF71" s="226" t="s">
         <v>2</v>
       </c>
       <c r="AG71" s="43" t="s">
@@ -29531,7 +29531,7 @@
         <f>((G38*100/G4)-100)</f>
         <v>-31.616378142834606</v>
       </c>
-      <c r="AK71" s="195" t="s">
+      <c r="AK71" s="226" t="s">
         <v>2</v>
       </c>
       <c r="AL71" s="43" t="s">
@@ -29547,7 +29547,7 @@
       </c>
     </row>
     <row r="72" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF72" s="196"/>
+      <c r="AF72" s="227"/>
       <c r="AG72" s="43" t="s">
         <v>1</v>
       </c>
@@ -29559,7 +29559,7 @@
         <f>((G39*100/G5)-100)</f>
         <v>-29.68583415644278</v>
       </c>
-      <c r="AK72" s="196"/>
+      <c r="AK72" s="227"/>
       <c r="AL72" s="43" t="s">
         <v>1</v>
       </c>
@@ -29573,7 +29573,7 @@
       </c>
     </row>
     <row r="73" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF73" s="195" t="s">
+      <c r="AF73" s="226" t="s">
         <v>3</v>
       </c>
       <c r="AG73" s="43" t="s">
@@ -29587,7 +29587,7 @@
         <f>((G40*100/G6)-100)</f>
         <v>-22.8055609830229</v>
       </c>
-      <c r="AK73" s="195" t="s">
+      <c r="AK73" s="226" t="s">
         <v>3</v>
       </c>
       <c r="AL73" s="43" t="s">
@@ -29603,7 +29603,7 @@
       </c>
     </row>
     <row r="74" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF74" s="196"/>
+      <c r="AF74" s="227"/>
       <c r="AG74" s="43" t="s">
         <v>1</v>
       </c>
@@ -29615,7 +29615,7 @@
         <f>((G41*100/G7)-100)</f>
         <v>-43.800253941358989</v>
       </c>
-      <c r="AK74" s="196"/>
+      <c r="AK74" s="227"/>
       <c r="AL74" s="43" t="s">
         <v>1</v>
       </c>
@@ -29629,7 +29629,7 @@
       </c>
     </row>
     <row r="75" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF75" s="195" t="s">
+      <c r="AF75" s="226" t="s">
         <v>4</v>
       </c>
       <c r="AG75" s="43" t="s">
@@ -29643,7 +29643,7 @@
         <f>((G42*100/G9)-100)</f>
         <v>-33.468833140098369</v>
       </c>
-      <c r="AK75" s="195" t="s">
+      <c r="AK75" s="226" t="s">
         <v>4</v>
       </c>
       <c r="AL75" s="43" t="s">
@@ -29659,7 +29659,7 @@
       </c>
     </row>
     <row r="76" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF76" s="196"/>
+      <c r="AF76" s="227"/>
       <c r="AG76" s="43" t="s">
         <v>1</v>
       </c>
@@ -29671,7 +29671,7 @@
         <f>((G43*100/G11)-100)</f>
         <v>-49.49262644308935</v>
       </c>
-      <c r="AK76" s="196"/>
+      <c r="AK76" s="227"/>
       <c r="AL76" s="43" t="s">
         <v>1</v>
       </c>
@@ -29685,7 +29685,7 @@
       </c>
     </row>
     <row r="77" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF77" s="195" t="s">
+      <c r="AF77" s="226" t="s">
         <v>5</v>
       </c>
       <c r="AG77" s="43" t="s">
@@ -29699,7 +29699,7 @@
         <f>((G44*100/G13)-100)</f>
         <v>-32.61294418421096</v>
       </c>
-      <c r="AK77" s="195" t="s">
+      <c r="AK77" s="226" t="s">
         <v>5</v>
       </c>
       <c r="AL77" s="43" t="s">
@@ -29715,7 +29715,7 @@
       </c>
     </row>
     <row r="78" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF78" s="196"/>
+      <c r="AF78" s="227"/>
       <c r="AG78" s="43" t="s">
         <v>1</v>
       </c>
@@ -29727,7 +29727,7 @@
         <f>((G45*100/G15)-100)</f>
         <v>-58.510098132688334</v>
       </c>
-      <c r="AK78" s="196"/>
+      <c r="AK78" s="227"/>
       <c r="AL78" s="43" t="s">
         <v>1</v>
       </c>
@@ -29741,7 +29741,7 @@
       </c>
     </row>
     <row r="79" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF79" s="195" t="s">
+      <c r="AF79" s="226" t="s">
         <v>12</v>
       </c>
       <c r="AG79" s="43" t="s">
@@ -29755,7 +29755,7 @@
         <f>((G46*100/G17)-100)</f>
         <v>-41.478461929237419</v>
       </c>
-      <c r="AK79" s="195" t="s">
+      <c r="AK79" s="226" t="s">
         <v>12</v>
       </c>
       <c r="AL79" s="43" t="s">
@@ -29771,7 +29771,7 @@
       </c>
     </row>
     <row r="80" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF80" s="196"/>
+      <c r="AF80" s="227"/>
       <c r="AG80" s="43" t="s">
         <v>1</v>
       </c>
@@ -29783,7 +29783,7 @@
         <f>((G47*100/G19)-100)</f>
         <v>-61.819740426117349</v>
       </c>
-      <c r="AK80" s="196"/>
+      <c r="AK80" s="227"/>
       <c r="AL80" s="43" t="s">
         <v>1</v>
       </c>
@@ -29797,20 +29797,20 @@
       </c>
     </row>
     <row r="81" spans="32:40" x14ac:dyDescent="0.2">
-      <c r="AF81" s="197" t="s">
+      <c r="AF81" s="228" t="s">
         <v>82</v>
       </c>
-      <c r="AG81" s="198"/>
+      <c r="AG81" s="229"/>
       <c r="AH81" s="50" t="s">
         <v>88</v>
       </c>
       <c r="AI81" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="AK81" s="197" t="s">
+      <c r="AK81" s="228" t="s">
         <v>82</v>
       </c>
-      <c r="AL81" s="198"/>
+      <c r="AL81" s="229"/>
       <c r="AM81" s="50" t="s">
         <v>88</v>
       </c>
@@ -29819,10 +29819,10 @@
       </c>
     </row>
     <row r="217" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T217" s="210" t="s">
+      <c r="T217" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="U217" s="214" t="s">
+      <c r="U217" s="210" t="s">
         <v>145</v>
       </c>
       <c r="V217" s="89" t="s">
@@ -29851,8 +29851,8 @@
       </c>
     </row>
     <row r="218" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T218" s="210"/>
-      <c r="U218" s="214"/>
+      <c r="T218" s="209"/>
+      <c r="U218" s="210"/>
       <c r="V218" s="89" t="s">
         <v>158</v>
       </c>
@@ -29889,10 +29889,10 @@
       <c r="AC219" s="152"/>
     </row>
     <row r="220" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T220" s="210" t="s">
+      <c r="T220" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="U220" s="210" t="s">
+      <c r="U220" s="209" t="s">
         <v>76</v>
       </c>
       <c r="V220" s="89" t="s">
@@ -29921,8 +29921,8 @@
       </c>
     </row>
     <row r="221" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T221" s="210"/>
-      <c r="U221" s="210"/>
+      <c r="T221" s="209"/>
+      <c r="U221" s="209"/>
       <c r="V221" s="89" t="s">
         <v>158</v>
       </c>
@@ -29947,10 +29947,10 @@
       <c r="AC221" s="131"/>
     </row>
     <row r="222" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T222" s="210" t="s">
+      <c r="T222" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="U222" s="210" t="s">
+      <c r="U222" s="209" t="s">
         <v>77</v>
       </c>
       <c r="V222" s="89" t="s">
@@ -29979,8 +29979,8 @@
       </c>
     </row>
     <row r="223" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T223" s="210"/>
-      <c r="U223" s="210"/>
+      <c r="T223" s="209"/>
+      <c r="U223" s="209"/>
       <c r="V223" s="89" t="s">
         <v>158</v>
       </c>
@@ -30017,10 +30017,10 @@
       <c r="AC224" s="152"/>
     </row>
     <row r="225" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T225" s="216" t="s">
+      <c r="T225" s="218" t="s">
         <v>111</v>
       </c>
-      <c r="U225" s="216" t="s">
+      <c r="U225" s="218" t="s">
         <v>76</v>
       </c>
       <c r="V225" s="89" t="s">
@@ -30049,8 +30049,8 @@
       </c>
     </row>
     <row r="226" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T226" s="216"/>
-      <c r="U226" s="216"/>
+      <c r="T226" s="218"/>
+      <c r="U226" s="218"/>
       <c r="V226" s="89" t="s">
         <v>158</v>
       </c>
@@ -30075,10 +30075,10 @@
       <c r="AC226" s="131"/>
     </row>
     <row r="227" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T227" s="216" t="s">
+      <c r="T227" s="218" t="s">
         <v>111</v>
       </c>
-      <c r="U227" s="216" t="s">
+      <c r="U227" s="218" t="s">
         <v>77</v>
       </c>
       <c r="V227" s="89" t="s">
@@ -30107,8 +30107,8 @@
       </c>
     </row>
     <row r="228" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T228" s="216"/>
-      <c r="U228" s="216"/>
+      <c r="T228" s="218"/>
+      <c r="U228" s="218"/>
       <c r="V228" s="89" t="s">
         <v>158</v>
       </c>
@@ -30145,10 +30145,10 @@
       <c r="AC229" s="152"/>
     </row>
     <row r="230" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T230" s="216" t="s">
+      <c r="T230" s="218" t="s">
         <v>111</v>
       </c>
-      <c r="U230" s="214" t="s">
+      <c r="U230" s="210" t="s">
         <v>145</v>
       </c>
       <c r="V230" s="89" t="s">
@@ -30177,8 +30177,8 @@
       </c>
     </row>
     <row r="231" spans="20:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="T231" s="216"/>
-      <c r="U231" s="214"/>
+      <c r="T231" s="218"/>
+      <c r="U231" s="210"/>
       <c r="V231" s="89" t="s">
         <v>158</v>
       </c>
@@ -30204,67 +30204,32 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="V5:AC5"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="AD7:AD15"/>
-    <mergeCell ref="T217:T218"/>
-    <mergeCell ref="U217:U218"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T220:T221"/>
-    <mergeCell ref="T222:T223"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U220:U221"/>
-    <mergeCell ref="U222:U223"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="T230:T231"/>
-    <mergeCell ref="U230:U231"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="T225:T226"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="U225:U226"/>
-    <mergeCell ref="T227:T228"/>
-    <mergeCell ref="U227:U228"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="AK81:AL81"/>
+    <mergeCell ref="AF66:AI66"/>
+    <mergeCell ref="AK66:AN66"/>
+    <mergeCell ref="AK71:AK72"/>
+    <mergeCell ref="AK73:AK74"/>
+    <mergeCell ref="AK75:AK76"/>
+    <mergeCell ref="AK77:AK78"/>
+    <mergeCell ref="AK79:AK80"/>
+    <mergeCell ref="AF67:AI67"/>
+    <mergeCell ref="AK67:AN67"/>
+    <mergeCell ref="AM68:AN68"/>
+    <mergeCell ref="AK69:AL69"/>
+    <mergeCell ref="AK70:AL70"/>
+    <mergeCell ref="AF70:AG70"/>
+    <mergeCell ref="AF69:AG69"/>
+    <mergeCell ref="AF81:AG81"/>
+    <mergeCell ref="AH68:AI68"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="AF71:AF72"/>
+    <mergeCell ref="AF73:AF74"/>
+    <mergeCell ref="AF75:AF76"/>
+    <mergeCell ref="AF77:AF78"/>
+    <mergeCell ref="AF79:AF80"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
@@ -30286,32 +30251,67 @@
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="AF71:AF72"/>
-    <mergeCell ref="AF73:AF74"/>
-    <mergeCell ref="AF75:AF76"/>
-    <mergeCell ref="AF77:AF78"/>
-    <mergeCell ref="AF79:AF80"/>
-    <mergeCell ref="AK81:AL81"/>
-    <mergeCell ref="AF66:AI66"/>
-    <mergeCell ref="AK66:AN66"/>
-    <mergeCell ref="AK71:AK72"/>
-    <mergeCell ref="AK73:AK74"/>
-    <mergeCell ref="AK75:AK76"/>
-    <mergeCell ref="AK77:AK78"/>
-    <mergeCell ref="AK79:AK80"/>
-    <mergeCell ref="AF67:AI67"/>
-    <mergeCell ref="AK67:AN67"/>
-    <mergeCell ref="AM68:AN68"/>
-    <mergeCell ref="AK69:AL69"/>
-    <mergeCell ref="AK70:AL70"/>
-    <mergeCell ref="AF70:AG70"/>
-    <mergeCell ref="AF69:AG69"/>
-    <mergeCell ref="AF81:AG81"/>
-    <mergeCell ref="AH68:AI68"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="T230:T231"/>
+    <mergeCell ref="U230:U231"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="T225:T226"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="U225:U226"/>
+    <mergeCell ref="T227:T228"/>
+    <mergeCell ref="U227:U228"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="AD7:AD15"/>
+    <mergeCell ref="T217:T218"/>
+    <mergeCell ref="U217:U218"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T220:T221"/>
+    <mergeCell ref="T222:T223"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U220:U221"/>
+    <mergeCell ref="U222:U223"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="V5:AC5"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="T5:U5"/>
   </mergeCells>
   <conditionalFormatting sqref="W7:AB7 W9:AB9 W11:AB11 W13:AB13 W15:AB15 W17:AB17 W19:AB19 W21:AB21">
     <cfRule type="colorScale" priority="1">
